--- a/All Teraco Data/Operations DB1/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations DB1/Outputs/Data Analysis Results.xlsx
@@ -10,18 +10,16 @@
     <sheet name="Annualised Power Consumption" sheetId="1" r:id="rId1"/>
     <sheet name="Incomer Sources" sheetId="2" r:id="rId2"/>
     <sheet name="SEU Data" sheetId="3" r:id="rId3"/>
-    <sheet name="TEM1 Target Parameters w" sheetId="4" r:id="rId4"/>
-    <sheet name="TEM1 Fitting Parameters w" sheetId="5" r:id="rId5"/>
-    <sheet name="Total Target Parameters w" sheetId="6" r:id="rId6"/>
-    <sheet name="Total Fitting Parameters w" sheetId="7" r:id="rId7"/>
-    <sheet name="Plotting Data" sheetId="8" r:id="rId8"/>
+    <sheet name="TEM1 Fitting Parameters w" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Fitting Parameters w" sheetId="5" r:id="rId5"/>
+    <sheet name="Plotting Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
   <si>
     <t>Total Incoming</t>
   </si>
@@ -44,16 +42,19 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.9966875129896599</t>
+    <t>R2 = 0.7341815255835349</t>
   </si>
   <si>
     <t>const</t>
   </si>
   <si>
-    <t>DB1_TEM1.DB1_TEM1_UPS_B_Supply#Real Energy Into the Load#kWh</t>
+    <t>Total UPS TEM1</t>
   </si>
   <si>
-    <t>R2 = 0.7885690242178021</t>
+    <t>CDD 18</t>
+  </si>
+  <si>
+    <t>Total UPS Total</t>
   </si>
   <si>
     <t>TEM</t>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>Predicted HVAC Power kWh</t>
-  </si>
-  <si>
-    <t>Target HVAC Power kWh</t>
   </si>
   <si>
     <t>Difference kWh</t>
@@ -511,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3766708</v>
+        <v>957886</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -519,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>63985.20799999998</v>
+        <v>4979.858999999997</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>28.78493293843538</v>
+        <v>30.47493981194314</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -553,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>63.75929747908964</v>
+        <v>62.29297595232322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -561,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.455769582474991</v>
+        <v>7.232084235733642</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +569,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -587,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1740996103562347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -595,7 +593,15 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8644822291610976</v>
+        <v>0.4170039696304857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.5876984902419856</v>
       </c>
     </row>
   </sheetData>
@@ -605,41 +611,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-181.1101133954421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1.898711334803294</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,15 +627,23 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1740996103562347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.8644822291610976</v>
+        <v>0.4170039696304857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.5876984902419856</v>
       </c>
     </row>
   </sheetData>
@@ -671,41 +651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-181.1101133954421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1.898711334803294</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M127"/>
   <sheetViews>
@@ -718,37 +664,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -765,25 +711,31 @@
         <v>134.2059718309705</v>
       </c>
       <c r="E2">
-        <v>95.83784735269512</v>
+        <v>154.6295022703841</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>38.36812447827538</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.8679195745990232</v>
       </c>
       <c r="I2">
-        <v>1.400344180698007</v>
+        <v>1.557589502491472</v>
       </c>
       <c r="J2">
-        <v>1.557589502491472</v>
+        <v>1.622575794915018</v>
       </c>
       <c r="K2">
-        <v>1.435504725597248</v>
+        <v>314.2744366197099</v>
       </c>
       <c r="L2">
-        <v>314.2744366197099</v>
+        <v>489.5105633802817</v>
       </c>
       <c r="M2">
-        <v>489.5105633802817</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -800,25 +752,31 @@
         <v>140.0087321428582</v>
       </c>
       <c r="E3">
-        <v>100.2601114405612</v>
+        <v>158.1917127966816</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>39.74862070229705</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.8850573122171492</v>
       </c>
       <c r="I3">
-        <v>1.396454982257444</v>
+        <v>1.572346885360321</v>
       </c>
       <c r="J3">
-        <v>1.572346885360321</v>
+        <v>1.62920241028032</v>
       </c>
       <c r="K3">
-        <v>1.448058753623249</v>
+        <v>319.8102678571428</v>
       </c>
       <c r="L3">
-        <v>319.8102678571428</v>
+        <v>502.8526785714286</v>
       </c>
       <c r="M3">
-        <v>502.8526785714286</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -835,25 +793,31 @@
         <v>144.4008035714284</v>
       </c>
       <c r="E4">
-        <v>101.176363979994</v>
+        <v>161.2506918173763</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.22443959143436</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.8955050173364142</v>
       </c>
       <c r="I4">
-        <v>1.427218748441892</v>
+        <v>1.495412542330898</v>
       </c>
       <c r="J4">
-        <v>1.495412542330898</v>
+        <v>1.548066889717883</v>
       </c>
       <c r="K4">
-        <v>1.360340153444136</v>
+        <v>320.0094404761912</v>
       </c>
       <c r="L4">
-        <v>320.0094404761912</v>
+        <v>478.546130952381</v>
       </c>
       <c r="M4">
-        <v>478.546130952381</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -870,25 +834,31 @@
         <v>142.9466011904768</v>
       </c>
       <c r="E5">
-        <v>102.2127100113445</v>
+        <v>159.6537506558605</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>40.73389117913229</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.8953538554731694</v>
       </c>
       <c r="I5">
-        <v>1.398520802105837</v>
+        <v>1.582180327263746</v>
       </c>
       <c r="J5">
-        <v>1.582180327263746</v>
+        <v>1.634341731812601</v>
       </c>
       <c r="K5">
-        <v>1.455005013423039</v>
+        <v>320.2971547619063</v>
       </c>
       <c r="L5">
-        <v>320.2971547619063</v>
+        <v>506.7678571428572</v>
       </c>
       <c r="M5">
-        <v>506.7678571428572</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -905,25 +875,31 @@
         <v>140.7582857142912</v>
       </c>
       <c r="E6">
-        <v>103.7528022427904</v>
+        <v>156.2508330880756</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>37.00548347150084</v>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.9008482254616106</v>
       </c>
       <c r="I6">
-        <v>1.356669725265876</v>
+        <v>1.577623562626929</v>
       </c>
       <c r="J6">
-        <v>1.577623562626929</v>
+        <v>1.625842648218127</v>
       </c>
       <c r="K6">
-        <v>1.46244750204729</v>
+        <v>321.2949226190491</v>
       </c>
       <c r="L6">
-        <v>321.2949226190491</v>
+        <v>506.8824404761905</v>
       </c>
       <c r="M6">
-        <v>506.8824404761905</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -940,25 +916,31 @@
         <v>139.5269047619021</v>
       </c>
       <c r="E7">
-        <v>105.2251737699449</v>
+        <v>158.8133813987119</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>34.30173099195716</v>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.8785588691144999</v>
       </c>
       <c r="I7">
-        <v>1.325984075511735</v>
+        <v>1.499982204354249</v>
       </c>
       <c r="J7">
-        <v>1.499982204354249</v>
+        <v>1.559982382773357</v>
       </c>
       <c r="K7">
-        <v>1.393269608873038</v>
+        <v>321.4403214285682</v>
       </c>
       <c r="L7">
-        <v>321.4403214285682</v>
+        <v>482.1547619047619</v>
       </c>
       <c r="M7">
-        <v>482.1547619047619</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -975,25 +957,31 @@
         <v>147.3453333333323</v>
       </c>
       <c r="E8">
-        <v>108.1157357401273</v>
+        <v>162.368476112245</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>39.22959759320506</v>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.907475002915423</v>
       </c>
       <c r="I8">
-        <v>1.362848176767713</v>
+        <v>1.593994328535834</v>
       </c>
       <c r="J8">
-        <v>1.593994328535834</v>
+        <v>1.640668843431421</v>
       </c>
       <c r="K8">
-        <v>1.472114209032337</v>
+        <v>321.8703571428556</v>
       </c>
       <c r="L8">
-        <v>321.8703571428556</v>
+        <v>513.0595238095239</v>
       </c>
       <c r="M8">
-        <v>513.0595238095239</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1010,25 +998,31 @@
         <v>145.3112023809559</v>
       </c>
       <c r="E9">
-        <v>109.5687810983598</v>
+        <v>157.4694775649883</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>35.74242128259613</v>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.9227896391602962</v>
       </c>
       <c r="I9">
-        <v>1.326209901436343</v>
+        <v>1.593291214306311</v>
       </c>
       <c r="J9">
-        <v>1.593291214306311</v>
+        <v>1.630825206214054</v>
       </c>
       <c r="K9">
-        <v>1.482950254681877</v>
+        <v>323.9270476190529</v>
       </c>
       <c r="L9">
-        <v>323.9270476190529</v>
+        <v>516.110119047619</v>
       </c>
       <c r="M9">
-        <v>516.110119047619</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1045,25 +1039,31 @@
         <v>144.4887559523784</v>
       </c>
       <c r="E10">
-        <v>110.3597865007995</v>
+        <v>156.9040522203854</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>34.12896945157883</v>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.9208733229491823</v>
       </c>
       <c r="I10">
-        <v>1.309251861875717</v>
+        <v>1.591420056288376</v>
       </c>
       <c r="J10">
-        <v>1.591420056288376</v>
+        <v>1.629557999065331</v>
       </c>
       <c r="K10">
-        <v>1.486580940420083</v>
+        <v>325.5366011904719</v>
       </c>
       <c r="L10">
-        <v>325.5366011904719</v>
+        <v>518.0654761904761</v>
       </c>
       <c r="M10">
-        <v>518.0654761904761</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1080,25 +1080,31 @@
         <v>144.8991190476143</v>
       </c>
       <c r="E11">
-        <v>111.3914535649336</v>
+        <v>157.7356201769991</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>33.50766548268078</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.918620149874958</v>
       </c>
       <c r="I11">
-        <v>1.30081002096941</v>
+        <v>1.585400082593668</v>
       </c>
       <c r="J11">
-        <v>1.585400082593668</v>
+        <v>1.624620555810425</v>
       </c>
       <c r="K11">
-        <v>1.483021211328572</v>
+        <v>327.2908273809534</v>
       </c>
       <c r="L11">
-        <v>327.2908273809534</v>
+        <v>518.8869047619048</v>
       </c>
       <c r="M11">
-        <v>518.8869047619048</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1115,25 +1121,31 @@
         <v>150.2623095238093</v>
       </c>
       <c r="E12">
-        <v>121.5181852616965</v>
+        <v>947.880581257889</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>28.74412426211279</v>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.158524515107592</v>
       </c>
       <c r="I12">
-        <v>1.236541750522448</v>
+        <v>0.2211518480156466</v>
       </c>
       <c r="J12">
-        <v>0.2211518480156466</v>
+        <v>0.5821255774800674</v>
       </c>
       <c r="K12">
-        <v>0.2081432772459152</v>
+        <v>2209.629694985043</v>
       </c>
       <c r="L12">
-        <v>2209.629694985043</v>
+        <v>488.6636904761905</v>
       </c>
       <c r="M12">
-        <v>488.6636904761905</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1150,25 +1162,31 @@
         <v>152.0430000000023</v>
       </c>
       <c r="E13">
-        <v>129.9604435526026</v>
+        <v>2518.536252145573</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>22.08255644739978</v>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.06036958962590869</v>
       </c>
       <c r="I13">
-        <v>1.169917521391512</v>
+        <v>0.08316071538262837</v>
       </c>
       <c r="J13">
-        <v>0.08316071538262837</v>
+        <v>0.4786756228728111</v>
       </c>
       <c r="K13">
-        <v>0.07947003075358007</v>
+        <v>5983.322517885898</v>
       </c>
       <c r="L13">
-        <v>5983.322517885898</v>
+        <v>497.577380952381</v>
       </c>
       <c r="M13">
-        <v>497.577380952381</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1185,25 +1203,31 @@
         <v>141.0593869047672</v>
       </c>
       <c r="E14">
-        <v>130.058102865958</v>
+        <v>2505.677077193588</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>11.00128403880919</v>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.05629591625699698</v>
       </c>
       <c r="I14">
-        <v>1.084587455886139</v>
+        <v>0.08560584577700275</v>
       </c>
       <c r="J14">
-        <v>0.08560584577700275</v>
+        <v>0.481369956044975</v>
       </c>
       <c r="K14">
-        <v>0.08376456995161005</v>
+        <v>5974.815878801474</v>
       </c>
       <c r="L14">
-        <v>5974.815878801474</v>
+        <v>511.4791666666667</v>
       </c>
       <c r="M14">
-        <v>511.4791666666667</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1220,25 +1244,31 @@
         <v>156.4540059523757</v>
       </c>
       <c r="E15">
-        <v>131.0293050155652</v>
+        <v>2498.594875371729</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>25.42470093681044</v>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.06261679614191124</v>
       </c>
       <c r="I15">
-        <v>1.194038279709949</v>
+        <v>0.08992120805352749</v>
       </c>
       <c r="J15">
-        <v>0.08992120805352749</v>
+        <v>0.4835812761090927</v>
       </c>
       <c r="K15">
-        <v>0.08564789997383088</v>
+        <v>5949.653163929142</v>
       </c>
       <c r="L15">
-        <v>5949.653163929142</v>
+        <v>535</v>
       </c>
       <c r="M15">
-        <v>535</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1255,25 +1285,31 @@
         <v>158.7145476190518</v>
       </c>
       <c r="E16">
-        <v>133.5235109945935</v>
+        <v>2501.366705243571</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>25.19103662445826</v>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.06345113144999541</v>
       </c>
       <c r="I16">
-        <v>1.188663677556219</v>
+        <v>0.09059327195653993</v>
       </c>
       <c r="J16">
-        <v>0.09059327195653993</v>
+        <v>0.4836870519675929</v>
       </c>
       <c r="K16">
-        <v>0.08636625098081538</v>
+        <v>5959.52486848977</v>
       </c>
       <c r="L16">
-        <v>5959.52486848977</v>
+        <v>539.8928571428571</v>
       </c>
       <c r="M16">
-        <v>539.8928571428571</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1290,25 +1326,31 @@
         <v>156.8428750000007</v>
       </c>
       <c r="E17">
-        <v>130.9662293729463</v>
+        <v>734.8431290413783</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>25.87664562705444</v>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.2134372205461134</v>
       </c>
       <c r="I17">
-        <v>1.197582581028326</v>
+        <v>0.8809602459572561</v>
       </c>
       <c r="J17">
-        <v>0.8809602459572561</v>
+        <v>1.216479171086076</v>
       </c>
       <c r="K17">
-        <v>0.8659393108174817</v>
+        <v>1722.705369956287</v>
       </c>
       <c r="L17">
-        <v>1722.705369956287</v>
+        <v>1517.634946428572</v>
       </c>
       <c r="M17">
-        <v>1517.634946428572</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1325,28 +1367,31 @@
         <v>156.0972083333292</v>
       </c>
       <c r="E18">
-        <v>170.2699608700884</v>
+        <v>150.7338867132495</v>
       </c>
       <c r="F18">
-        <v>156.0972083333292</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>-14.17275253675916</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1.0355813927248</v>
       </c>
       <c r="I18">
-        <v>0.9167630481364084</v>
+        <v>1.587780193108647</v>
       </c>
       <c r="J18">
-        <v>1.587780193108647</v>
+        <v>1.571770199879942</v>
       </c>
       <c r="K18">
-        <v>1.630087123070878</v>
+        <v>334.9983690476233</v>
       </c>
       <c r="L18">
-        <v>334.9983690476233</v>
+        <v>531.9037750975085</v>
       </c>
       <c r="M18">
-        <v>531.9037750975085</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1363,25 +1408,31 @@
         <v>153.5751964285737</v>
       </c>
       <c r="E19">
-        <v>141.4019198301754</v>
+        <v>152.6345617785694</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>12.17327659839833</v>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.006162658306504</v>
       </c>
       <c r="I19">
-        <v>1.086089896184002</v>
+        <v>1.570878098096148</v>
       </c>
       <c r="J19">
-        <v>1.570878098096148</v>
+        <v>1.568110925363815</v>
       </c>
       <c r="K19">
-        <v>1.535066575454405</v>
+        <v>339.926250000002</v>
       </c>
       <c r="L19">
-        <v>339.926250000002</v>
+        <v>533.9827010929678</v>
       </c>
       <c r="M19">
-        <v>533.9827010929678</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1398,25 +1449,31 @@
         <v>152.6765714285651</v>
       </c>
       <c r="E20">
-        <v>146.1656622488242</v>
+        <v>150.6232778977588</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6.510909179740963</v>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.013631980125941</v>
       </c>
       <c r="I20">
-        <v>1.044544724660825</v>
+        <v>1.558810470238923</v>
       </c>
       <c r="J20">
-        <v>1.558810470238923</v>
+        <v>1.552784212443288</v>
       </c>
       <c r="K20">
-        <v>1.539701455082345</v>
+        <v>340.7244761904724</v>
       </c>
       <c r="L20">
-        <v>340.7244761904724</v>
+        <v>531.124880952381</v>
       </c>
       <c r="M20">
-        <v>531.124880952381</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1433,25 +1490,31 @@
         <v>157.3976964285775</v>
       </c>
       <c r="E21">
-        <v>144.5024928362048</v>
+        <v>154.2539879165841</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>12.89520359237267</v>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.020380079338328</v>
       </c>
       <c r="I21">
-        <v>1.089238623772322</v>
+        <v>1.570803371983793</v>
       </c>
       <c r="J21">
-        <v>1.570803371983793</v>
+        <v>1.561632169622951</v>
       </c>
       <c r="K21">
-        <v>1.533183942199281</v>
+        <v>342.7804107142867</v>
       </c>
       <c r="L21">
-        <v>342.7804107142867</v>
+        <v>538.4406250000001</v>
       </c>
       <c r="M21">
-        <v>538.4406250000001</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1468,25 +1531,31 @@
         <v>150.4058869047634</v>
       </c>
       <c r="E22">
-        <v>144.7895712089107</v>
+        <v>149.8152226645259</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>5.616315695852705</v>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.003942618311626</v>
       </c>
       <c r="I22">
-        <v>1.038789504305867</v>
+        <v>1.560848303349736</v>
       </c>
       <c r="J22">
-        <v>1.560848303349736</v>
+        <v>1.559123387974313</v>
       </c>
       <c r="K22">
-        <v>1.544446989985804</v>
+        <v>342.4308511904729</v>
       </c>
       <c r="L22">
-        <v>342.4308511904729</v>
+        <v>534.4826130952381</v>
       </c>
       <c r="M22">
-        <v>534.4826130952381</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1503,25 +1572,31 @@
         <v>150.0719345238093</v>
       </c>
       <c r="E23">
-        <v>142.1482829125599</v>
+        <v>148.9184643458958</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>7.923651611249426</v>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.007745649157611</v>
       </c>
       <c r="I23">
-        <v>1.055742154944802</v>
+        <v>1.547534877460135</v>
       </c>
       <c r="J23">
-        <v>1.547534877460135</v>
+        <v>1.544166545805853</v>
       </c>
       <c r="K23">
-        <v>1.524396449566005</v>
+        <v>342.4455476190529</v>
       </c>
       <c r="L23">
-        <v>342.4455476190529</v>
+        <v>529.9464285714286</v>
       </c>
       <c r="M23">
-        <v>529.9464285714286</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1538,28 +1613,31 @@
         <v>152.2536964285675</v>
       </c>
       <c r="E24">
-        <v>147.2073879622876</v>
+        <v>145.6629314091923</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>5.046308466279982</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>5.046308466279982</v>
+        <v>1.045246686686956</v>
       </c>
       <c r="I24">
-        <v>1.034280266338078</v>
+        <v>1.559609421173874</v>
       </c>
       <c r="J24">
-        <v>1.559609421173874</v>
+        <v>1.540464493763287</v>
       </c>
       <c r="K24">
-        <v>1.544950848308001</v>
+        <v>344.256464285715</v>
       </c>
       <c r="L24">
-        <v>344.256464285715</v>
+        <v>536.905625</v>
       </c>
       <c r="M24">
-        <v>536.905625</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1576,28 +1654,31 @@
         <v>157.0354821428634</v>
       </c>
       <c r="E25">
-        <v>151.1306341633781</v>
+        <v>151.1502679938704</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>5.904847979485282</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>10.95115644576526</v>
+        <v>1.038936180710125</v>
       </c>
       <c r="I25">
-        <v>1.039071152001532</v>
+        <v>1.569419507488795</v>
       </c>
       <c r="J25">
-        <v>1.569419507488795</v>
+        <v>1.55264447743385</v>
       </c>
       <c r="K25">
-        <v>1.552588513778448</v>
+        <v>350.8318095238092</v>
       </c>
       <c r="L25">
-        <v>350.8318095238092</v>
+        <v>550.6022857142857</v>
       </c>
       <c r="M25">
-        <v>550.6022857142857</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1614,28 +1695,31 @@
         <v>151.8791547618984</v>
       </c>
       <c r="E26">
-        <v>147.2711530179479</v>
+        <v>151.3772036866484</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4.608001743950439</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>15.5591581897157</v>
+        <v>1.003315896073025</v>
       </c>
       <c r="I26">
-        <v>1.031289235193187</v>
+        <v>1.548852670984837</v>
       </c>
       <c r="J26">
-        <v>1.548852670984837</v>
+        <v>1.547412523362798</v>
       </c>
       <c r="K26">
-        <v>1.535631855090386</v>
+        <v>348.5414047619062</v>
       </c>
       <c r="L26">
-        <v>348.5414047619062</v>
+        <v>539.8392857142857</v>
       </c>
       <c r="M26">
-        <v>539.8392857142857</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1652,28 +1736,31 @@
         <v>148.30996428572</v>
       </c>
       <c r="E27">
-        <v>145.9409135964102</v>
+        <v>150.0558700498584</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2.369050689309802</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>17.9282088790255</v>
+        <v>0.9883649619067998</v>
       </c>
       <c r="I27">
-        <v>1.016232944079419</v>
+        <v>1.535492302740842</v>
       </c>
       <c r="J27">
-        <v>1.535492302740842</v>
+        <v>1.540533026392636</v>
       </c>
       <c r="K27">
-        <v>1.52865245485948</v>
+        <v>346.3601428571412</v>
       </c>
       <c r="L27">
-        <v>346.3601428571412</v>
+        <v>531.8333333333334</v>
       </c>
       <c r="M27">
-        <v>531.8333333333334</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1690,28 +1777,31 @@
         <v>158.1438511904728</v>
       </c>
       <c r="E28">
-        <v>147.4665394557785</v>
+        <v>152.5077765011403</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>10.67731173469431</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>28.60552061371982</v>
+        <v>1.036955982302255</v>
       </c>
       <c r="I28">
-        <v>1.072404979286139</v>
+        <v>1.56272533373313</v>
       </c>
       <c r="J28">
-        <v>1.56272533373313</v>
+        <v>1.546492552225222</v>
       </c>
       <c r="K28">
-        <v>1.531972996683878</v>
+        <v>347.2032619047566</v>
       </c>
       <c r="L28">
-        <v>347.2032619047566</v>
+        <v>542.5833333333334</v>
       </c>
       <c r="M28">
-        <v>542.5833333333334</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1728,31 +1818,31 @@
         <v>144.3952142857126</v>
       </c>
       <c r="E29">
-        <v>145.9708069980856</v>
+        <v>147.5998250432984</v>
       </c>
       <c r="F29">
-        <v>144.3952142857126</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-1.575592712373009</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>27.02992790134681</v>
+        <v>0.9782885192672436</v>
       </c>
       <c r="I29">
-        <v>0.9892061108328758</v>
+        <v>1.525146884594245</v>
       </c>
       <c r="J29">
-        <v>1.525146884594245</v>
+        <v>1.534388991885071</v>
       </c>
       <c r="K29">
-        <v>1.529690898827464</v>
+        <v>346.7402678571442</v>
       </c>
       <c r="L29">
-        <v>346.7402678571442</v>
+        <v>528.8298392857143</v>
       </c>
       <c r="M29">
-        <v>528.8298392857143</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1769,31 +1859,31 @@
         <v>145.9704999999986</v>
       </c>
       <c r="E30">
-        <v>147.493584790448</v>
+        <v>147.1306517031884</v>
       </c>
       <c r="F30">
-        <v>145.9704999999986</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-1.523084790449388</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>25.50684311089742</v>
+        <v>0.9921148197893515</v>
       </c>
       <c r="I30">
-        <v>0.9896735522930484</v>
+        <v>1.530192496413252</v>
       </c>
       <c r="J30">
-        <v>1.530192496413252</v>
+        <v>1.533538840451344</v>
       </c>
       <c r="K30">
-        <v>1.534585685419496</v>
+        <v>346.6922976190468</v>
       </c>
       <c r="L30">
-        <v>346.6922976190468</v>
+        <v>530.5059523809524</v>
       </c>
       <c r="M30">
-        <v>530.5059523809524</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1810,31 +1900,31 @@
         <v>137.1910416666707</v>
       </c>
       <c r="E31">
-        <v>147.4503099945994</v>
+        <v>146.5751301568946</v>
       </c>
       <c r="F31">
-        <v>137.1910416666707</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-10.25926832792877</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>15.24757478296866</v>
+        <v>0.9359776213046564</v>
       </c>
       <c r="I31">
-        <v>0.9304221989882251</v>
+        <v>1.508090070702715</v>
       </c>
       <c r="J31">
-        <v>1.508090070702715</v>
+        <v>1.535146361680138</v>
       </c>
       <c r="K31">
-        <v>1.537669688305966</v>
+        <v>346.8357321428567</v>
       </c>
       <c r="L31">
-        <v>346.8357321428567</v>
+        <v>523.0595238095239</v>
       </c>
       <c r="M31">
-        <v>523.0595238095239</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1851,31 +1941,31 @@
         <v>148.550464285715</v>
       </c>
       <c r="E32">
-        <v>149.7099234071194</v>
+        <v>149.5998146687054</v>
       </c>
       <c r="F32">
-        <v>148.550464285715</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-1.159459121404439</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>14.08811566156422</v>
+        <v>0.9929856170924126</v>
       </c>
       <c r="I32">
-        <v>0.9922552954739585</v>
+        <v>1.543056571904535</v>
       </c>
       <c r="J32">
-        <v>1.543056571904535</v>
+        <v>1.546062060544356</v>
       </c>
       <c r="K32">
-        <v>1.5463774276208</v>
+        <v>349.1446845238097</v>
       </c>
       <c r="L32">
-        <v>349.1446845238097</v>
+        <v>538.75</v>
       </c>
       <c r="M32">
-        <v>538.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1892,31 +1982,31 @@
         <v>148.1289345238058</v>
       </c>
       <c r="E33">
-        <v>150.576685131455</v>
+        <v>151.1467922160408</v>
       </c>
       <c r="F33">
-        <v>148.1289345238058</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-2.447750607649112</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>11.6403650539151</v>
+        <v>0.9800335974850102</v>
       </c>
       <c r="I33">
-        <v>0.9837441592932386</v>
+        <v>1.543234943406895</v>
       </c>
       <c r="J33">
-        <v>1.543234943406895</v>
+        <v>1.55184034428612</v>
       </c>
       <c r="K33">
-        <v>1.550214687775022</v>
+        <v>350.6934464285704</v>
       </c>
       <c r="L33">
-        <v>350.6934464285704</v>
+        <v>541.202380952381</v>
       </c>
       <c r="M33">
-        <v>541.202380952381</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1933,31 +2023,31 @@
         <v>148.7178750000007</v>
       </c>
       <c r="E34">
-        <v>152.3479115623471</v>
+        <v>150.0896963079265</v>
       </c>
       <c r="F34">
-        <v>148.7178750000007</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-3.630036562346362</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>8.010328491568742</v>
+        <v>0.9908599901147686</v>
       </c>
       <c r="I34">
-        <v>0.9761727185813059</v>
+        <v>1.551949716378851</v>
       </c>
       <c r="J34">
-        <v>1.551949716378851</v>
+        <v>1.55584716173332</v>
       </c>
       <c r="K34">
-        <v>1.562262917562365</v>
+        <v>351.9796130952392</v>
       </c>
       <c r="L34">
-        <v>351.9796130952392</v>
+        <v>546.2546607142857</v>
       </c>
       <c r="M34">
-        <v>546.2546607142857</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1974,31 +2064,31 @@
         <v>149.8686607142833</v>
       </c>
       <c r="E35">
-        <v>152.7689734045467</v>
+        <v>151.7328174491492</v>
       </c>
       <c r="F35">
-        <v>149.8686607142833</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-2.900312690263405</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>5.110015801305337</v>
+        <v>0.9877142152488488</v>
       </c>
       <c r="I35">
-        <v>0.9810150410411995</v>
+        <v>1.545537786875197</v>
       </c>
       <c r="J35">
-        <v>1.545537786875197</v>
+        <v>1.550819466275676</v>
       </c>
       <c r="K35">
-        <v>1.553755187002881</v>
+        <v>352.9477261904782</v>
       </c>
       <c r="L35">
-        <v>352.9477261904782</v>
+        <v>545.4940476190476</v>
       </c>
       <c r="M35">
-        <v>545.4940476190476</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2015,31 +2105,31 @@
         <v>153.2249880952406</v>
       </c>
       <c r="E36">
-        <v>153.4964171846957</v>
+        <v>155.9768625214436</v>
       </c>
       <c r="F36">
-        <v>153.2249880952406</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-0.2714290894551254</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4.838586711850212</v>
+        <v>0.9823571625834909</v>
       </c>
       <c r="I36">
-        <v>0.9982316910424787</v>
+        <v>1.548289623279574</v>
       </c>
       <c r="J36">
-        <v>1.548289623279574</v>
+        <v>1.556088679369513</v>
       </c>
       <c r="K36">
-        <v>1.549058877382503</v>
+        <v>352.847113095235</v>
       </c>
       <c r="L36">
-        <v>352.847113095235</v>
+        <v>546.3095238095239</v>
       </c>
       <c r="M36">
-        <v>546.3095238095239</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2056,31 +2146,31 @@
         <v>154.2299345238079</v>
       </c>
       <c r="E37">
-        <v>159.0736330899011</v>
+        <v>154.96937297445</v>
       </c>
       <c r="F37">
-        <v>154.2299345238079</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-4.843698566093252</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-0.00511185424304017</v>
+        <v>0.9952284865296315</v>
       </c>
       <c r="I37">
-        <v>0.9695505881646909</v>
+        <v>1.541009956893704</v>
       </c>
       <c r="J37">
-        <v>1.541009956893704</v>
+        <v>1.5430874983344</v>
       </c>
       <c r="K37">
-        <v>1.554618911754736</v>
+        <v>355.9199523809532</v>
       </c>
       <c r="L37">
-        <v>355.9199523809532</v>
+        <v>548.4761904761905</v>
       </c>
       <c r="M37">
-        <v>548.4761904761905</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2097,31 +2187,31 @@
         <v>150.5623452380976</v>
       </c>
       <c r="E38">
-        <v>157.2147833912834</v>
+        <v>153.8068462561213</v>
       </c>
       <c r="F38">
-        <v>150.5623452380976</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-6.652438153185869</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-6.65755000742891</v>
+        <v>0.9789053537147435</v>
       </c>
       <c r="I38">
-        <v>0.9576856704586809</v>
+        <v>1.531794692153567</v>
       </c>
       <c r="J38">
-        <v>1.531794692153567</v>
+        <v>1.540912275430181</v>
       </c>
       <c r="K38">
-        <v>1.550489141166605</v>
+        <v>355.8509880952437</v>
       </c>
       <c r="L38">
-        <v>355.8509880952437</v>
+        <v>545.0906547619048</v>
       </c>
       <c r="M38">
-        <v>545.0906547619048</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2138,28 +2228,31 @@
         <v>158.337166666663</v>
       </c>
       <c r="E39">
-        <v>152.3546587686983</v>
+        <v>154.8723022349019</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>5.982507897964723</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.6750421094641865</v>
+        <v>1.02237239572061</v>
       </c>
       <c r="I39">
-        <v>1.039266983670301</v>
+        <v>1.551825866658735</v>
       </c>
       <c r="J39">
-        <v>1.551825866658735</v>
+        <v>1.542091360166521</v>
       </c>
       <c r="K39">
-        <v>1.535018062740456</v>
+        <v>355.9363214285667</v>
       </c>
       <c r="L39">
-        <v>355.9363214285667</v>
+        <v>552.3511904761905</v>
       </c>
       <c r="M39">
-        <v>552.3511904761905</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2176,28 +2269,31 @@
         <v>155.2170833333373</v>
       </c>
       <c r="E40">
-        <v>154.2440573764782</v>
+        <v>155.1062633025237</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.9730259568590895</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.297983847394903</v>
+        <v>1.00071447811619</v>
       </c>
       <c r="I40">
-        <v>1.006308352966132</v>
+        <v>1.541391284642335</v>
       </c>
       <c r="J40">
-        <v>1.541391284642335</v>
+        <v>1.541081335502792</v>
       </c>
       <c r="K40">
-        <v>1.538669858237133</v>
+        <v>357.5426309523783</v>
       </c>
       <c r="L40">
-        <v>357.5426309523783</v>
+        <v>551.1130952380952</v>
       </c>
       <c r="M40">
-        <v>551.1130952380952</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2214,31 +2310,31 @@
         <v>150.4812380952339</v>
       </c>
       <c r="E41">
-        <v>157.2297583467535</v>
+        <v>158.2787981330455</v>
       </c>
       <c r="F41">
-        <v>150.4812380952339</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-6.748520251519579</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>-6.450536404124676</v>
+        <v>0.9507352840065342</v>
       </c>
       <c r="I41">
-        <v>0.957078606985858</v>
+        <v>1.524838044019881</v>
       </c>
       <c r="J41">
-        <v>1.524838044019881</v>
+        <v>1.546492345788618</v>
       </c>
       <c r="K41">
-        <v>1.543579098056042</v>
+        <v>360.0928869047646</v>
       </c>
       <c r="L41">
-        <v>360.0928869047646</v>
+        <v>549.0833333333334</v>
       </c>
       <c r="M41">
-        <v>549.0833333333334</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2255,31 +2351,31 @@
         <v>150.4646190476293</v>
       </c>
       <c r="E42">
-        <v>157.3751001786952</v>
+        <v>155.9312647611605</v>
       </c>
       <c r="F42">
-        <v>150.4646190476293</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-6.910481131065893</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>-13.36101753519057</v>
+        <v>0.9649419523281334</v>
       </c>
       <c r="I42">
-        <v>0.9560891073415094</v>
+        <v>1.530703656965332</v>
       </c>
       <c r="J42">
-        <v>1.530703656965332</v>
+        <v>1.545841759963428</v>
       </c>
       <c r="K42">
-        <v>1.549839994055833</v>
+        <v>361.1182797619064</v>
       </c>
       <c r="L42">
-        <v>361.1182797619064</v>
+        <v>552.7650714285713</v>
       </c>
       <c r="M42">
-        <v>552.7650714285713</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2296,31 +2392,31 @@
         <v>154.9318988095259</v>
       </c>
       <c r="E43">
-        <v>158.0554943440242</v>
+        <v>161.2658054169062</v>
       </c>
       <c r="F43">
-        <v>154.9318988095259</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-3.123595534498236</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>-16.48461306968881</v>
+        <v>0.9607238088012162</v>
       </c>
       <c r="I43">
-        <v>0.9802373492458326</v>
+        <v>1.558349824050244</v>
       </c>
       <c r="J43">
-        <v>1.558349824050244</v>
+        <v>1.57583734875986</v>
       </c>
       <c r="K43">
-        <v>1.566973878283809</v>
+        <v>362.19572023809</v>
       </c>
       <c r="L43">
-        <v>362.19572023809</v>
+        <v>564.4276369047618</v>
       </c>
       <c r="M43">
-        <v>564.4276369047618</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2337,28 +2433,31 @@
         <v>160.2658154761884</v>
       </c>
       <c r="E44">
-        <v>159.1638218783199</v>
+        <v>157.5998220198986</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.101993597868557</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-15.38261947182025</v>
+        <v>1.016916221237567</v>
       </c>
       <c r="I44">
-        <v>1.006923643733002</v>
+        <v>1.562263884482379</v>
       </c>
       <c r="J44">
-        <v>1.562263884482379</v>
+        <v>1.554932809515883</v>
       </c>
       <c r="K44">
-        <v>1.559233570338316</v>
+        <v>363.656553571434</v>
       </c>
       <c r="L44">
-        <v>363.656553571434</v>
+        <v>568.1274999999999</v>
       </c>
       <c r="M44">
-        <v>568.1274999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2375,28 +2474,31 @@
         <v>166.2139940476156</v>
       </c>
       <c r="E45">
-        <v>161.7353099294105</v>
+        <v>157.8899805313582</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>4.478684118205081</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-10.90393535361517</v>
+        <v>1.052720340380333</v>
       </c>
       <c r="I45">
-        <v>1.027691443013649</v>
+        <v>1.579345157025566</v>
       </c>
       <c r="J45">
-        <v>1.579345157025566</v>
+        <v>1.556560900646736</v>
       </c>
       <c r="K45">
-        <v>1.56708622844626</v>
+        <v>365.3405833333354</v>
       </c>
       <c r="L45">
-        <v>365.3405833333354</v>
+        <v>576.998880952381</v>
       </c>
       <c r="M45">
-        <v>576.998880952381</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2413,28 +2515,31 @@
         <v>167.3687499999956</v>
       </c>
       <c r="E46">
-        <v>163.2612635425223</v>
+        <v>164.4964293230406</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>4.1074864574733</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-6.796448896141868</v>
+        <v>1.017461294988441</v>
       </c>
       <c r="I46">
-        <v>1.025158977508486</v>
+        <v>1.577470453258754</v>
       </c>
       <c r="J46">
-        <v>1.577470453258754</v>
+        <v>1.569640210281676</v>
       </c>
       <c r="K46">
-        <v>1.566273020727938</v>
+        <v>366.8239523809503</v>
       </c>
       <c r="L46">
-        <v>366.8239523809503</v>
+        <v>578.6539464285715</v>
       </c>
       <c r="M46">
-        <v>578.6539464285715</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2451,28 +2556,31 @@
         <v>167.1621369047623</v>
       </c>
       <c r="E47">
-        <v>162.5532928554107</v>
+        <v>163.8692706275791</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>4.608844049351518</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>-2.18760484679035</v>
+        <v>1.020094470821603</v>
       </c>
       <c r="I47">
-        <v>1.028352818748809</v>
+        <v>1.587933394553531</v>
       </c>
       <c r="J47">
-        <v>1.587933394553531</v>
+        <v>1.578943403081213</v>
       </c>
       <c r="K47">
-        <v>1.575350597314538</v>
+        <v>366.2813571428525</v>
       </c>
       <c r="L47">
-        <v>366.2813571428525</v>
+        <v>581.6303988095236</v>
       </c>
       <c r="M47">
-        <v>581.6303988095236</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2489,31 +2597,31 @@
         <v>164.4951964285713</v>
       </c>
       <c r="E48">
-        <v>168.5436932111609</v>
+        <v>165.0337284204268</v>
       </c>
       <c r="F48">
-        <v>164.4951964285713</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>-4.048496782589666</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>-6.236101629380016</v>
+        <v>0.9967368367847597</v>
       </c>
       <c r="I48">
-        <v>0.9759795415333786</v>
+        <v>1.573310721672806</v>
       </c>
       <c r="J48">
-        <v>1.573310721672806</v>
+        <v>1.574762832595814</v>
       </c>
       <c r="K48">
-        <v>1.584227188082731</v>
+        <v>370.8614702381061</v>
       </c>
       <c r="L48">
-        <v>370.8614702381061</v>
+        <v>583.4803273809524</v>
       </c>
       <c r="M48">
-        <v>583.4803273809524</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2530,28 +2638,31 @@
         <v>173.2202976190463</v>
       </c>
       <c r="E49">
-        <v>171.3138113319512</v>
+        <v>166.2821394826832</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1.906486287095106</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>-4.32961534228491</v>
+        <v>1.041725215696335</v>
       </c>
       <c r="I49">
-        <v>1.011128619883431</v>
+        <v>1.58316812519325</v>
       </c>
       <c r="J49">
-        <v>1.58316812519325</v>
+        <v>1.564573416394278</v>
       </c>
       <c r="K49">
-        <v>1.578058619667285</v>
+        <v>373.1253988095171</v>
       </c>
       <c r="L49">
-        <v>373.1253988095171</v>
+        <v>590.7202380952381</v>
       </c>
       <c r="M49">
-        <v>590.7202380952381</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2568,28 +2679,31 @@
         <v>175.1457976190528</v>
       </c>
       <c r="E50">
-        <v>173.9126046603456</v>
+        <v>175.3893679509762</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1.233192958707292</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-3.096422383577618</v>
+        <v>0.9986112594237101</v>
       </c>
       <c r="I50">
-        <v>1.00709087740429</v>
+        <v>1.596230442639184</v>
       </c>
       <c r="J50">
-        <v>1.596230442639184</v>
+        <v>1.596879508498238</v>
       </c>
       <c r="K50">
-        <v>1.592944231872864</v>
+        <v>375.262892857144</v>
       </c>
       <c r="L50">
-        <v>375.262892857144</v>
+        <v>599.0060535714285</v>
       </c>
       <c r="M50">
-        <v>599.0060535714285</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2606,28 +2720,31 @@
         <v>178.8955476190451</v>
       </c>
       <c r="E51">
-        <v>172.310273123427</v>
+        <v>179.3276510694548</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>6.585274495618137</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>3.488852112040519</v>
+        <v>0.9975904248573336</v>
       </c>
       <c r="I51">
-        <v>1.038217538491748</v>
+        <v>1.607968930666337</v>
       </c>
       <c r="J51">
-        <v>1.607968930666337</v>
+        <v>1.609123372266538</v>
       </c>
       <c r="K51">
-        <v>1.590375192825833</v>
+        <v>374.296499999994</v>
       </c>
       <c r="L51">
-        <v>374.296499999994</v>
+        <v>601.8571428571429</v>
       </c>
       <c r="M51">
-        <v>601.8571428571429</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2644,31 +2761,31 @@
         <v>172.564595238095</v>
       </c>
       <c r="E52">
-        <v>173.7566277845729</v>
+        <v>172.5371725861211</v>
       </c>
       <c r="F52">
-        <v>172.564595238095</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-1.192032546477947</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2.296819565562572</v>
+        <v>1.00015893764551</v>
       </c>
       <c r="I52">
-        <v>0.9931396427193796</v>
+        <v>1.579236706502634</v>
       </c>
       <c r="J52">
-        <v>1.579236706502634</v>
+        <v>1.579163589419889</v>
       </c>
       <c r="K52">
-        <v>1.582415025740961</v>
+        <v>375.0512321428673</v>
       </c>
       <c r="L52">
-        <v>375.0512321428673</v>
+        <v>592.2946726190477</v>
       </c>
       <c r="M52">
-        <v>592.2946726190477</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2685,31 +2802,31 @@
         <v>170.0147678571465</v>
       </c>
       <c r="E53">
-        <v>174.5255041584734</v>
+        <v>171.4509159512136</v>
       </c>
       <c r="F53">
-        <v>170.0147678571465</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-4.510736301326887</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>-2.213916735764315</v>
+        <v>0.9916235612618378</v>
       </c>
       <c r="I53">
-        <v>0.9741542857986474</v>
+        <v>1.560486156660549</v>
       </c>
       <c r="J53">
-        <v>1.560486156660549</v>
+        <v>1.564317780166184</v>
       </c>
       <c r="K53">
-        <v>1.57252073952236</v>
+        <v>374.8145119047591</v>
       </c>
       <c r="L53">
-        <v>374.8145119047591</v>
+        <v>584.8928571428571</v>
       </c>
       <c r="M53">
-        <v>584.8928571428571</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2726,31 +2843,31 @@
         <v>172.4510654761855</v>
       </c>
       <c r="E54">
-        <v>173.5963788082808</v>
+        <v>176.1123861937075</v>
       </c>
       <c r="F54">
-        <v>172.4510654761855</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="G54">
-        <v>-1.145313332095299</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="H54">
-        <v>-3.359230067859613</v>
+        <v>0.9792103167945559</v>
       </c>
       <c r="I54">
-        <v>0.9934024353505658</v>
+        <v>1.573893975160251</v>
       </c>
       <c r="J54">
-        <v>1.573893975160251</v>
+        <v>1.583661666017127</v>
       </c>
       <c r="K54">
-        <v>1.576949448150811</v>
+        <v>374.8399464285689</v>
       </c>
       <c r="L54">
-        <v>374.8399464285689</v>
+        <v>589.9583333333334</v>
       </c>
       <c r="M54">
-        <v>589.9583333333334</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2767,28 +2884,31 @@
         <v>175.1705357142879</v>
       </c>
       <c r="E55">
-        <v>174.8275461848048</v>
+        <v>180.9860744791596</v>
+      </c>
+      <c r="F55">
+        <v>-5.815538764871661</v>
       </c>
       <c r="G55">
-        <v>0.3429895294831624</v>
+        <v>-9.47685948239365</v>
       </c>
       <c r="H55">
-        <v>-3.016240538376451</v>
+        <v>0.9678674794090785</v>
       </c>
       <c r="I55">
-        <v>1.001961873497444</v>
+        <v>1.576511399514425</v>
       </c>
       <c r="J55">
-        <v>1.576511399514425</v>
+        <v>1.591988371081941</v>
       </c>
       <c r="K55">
-        <v>1.575598596864423</v>
+        <v>375.7543095238119</v>
       </c>
       <c r="L55">
-        <v>375.7543095238119</v>
+        <v>592.3809523809524</v>
       </c>
       <c r="M55">
-        <v>592.3809523809524</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2805,28 +2925,31 @@
         <v>182.8107678571472</v>
       </c>
       <c r="E56">
-        <v>173.2067700234884</v>
+        <v>183.671769363045</v>
+      </c>
+      <c r="F56">
+        <v>-0.8610015058978036</v>
       </c>
       <c r="G56">
-        <v>9.603997833658752</v>
+        <v>-10.33786098829145</v>
       </c>
       <c r="H56">
-        <v>6.587757295282302</v>
+        <v>0.995312281746489</v>
       </c>
       <c r="I56">
-        <v>1.055448166560443</v>
+        <v>1.600224805410661</v>
       </c>
       <c r="J56">
-        <v>1.600224805410661</v>
+        <v>1.602510406928294</v>
       </c>
       <c r="K56">
-        <v>1.574730178660775</v>
+        <v>376.7067440476191</v>
       </c>
       <c r="L56">
-        <v>376.7067440476191</v>
+        <v>602.8154761904761</v>
       </c>
       <c r="M56">
-        <v>602.8154761904761</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2843,28 +2966,31 @@
         <v>184.3406488095144</v>
       </c>
       <c r="E57">
-        <v>183.8315178807806</v>
+        <v>185.1431699821308</v>
+      </c>
+      <c r="F57">
+        <v>-0.8025211726163377</v>
       </c>
       <c r="G57">
-        <v>0.5091309287338674</v>
+        <v>-11.14038216090779</v>
       </c>
       <c r="H57">
-        <v>7.096888224016169</v>
+        <v>0.9956654022252411</v>
       </c>
       <c r="I57">
-        <v>1.002769551895144</v>
+        <v>1.597186272590634</v>
       </c>
       <c r="J57">
-        <v>1.597186272590634</v>
+        <v>1.599262409603678</v>
       </c>
       <c r="K57">
-        <v>1.595869141527059</v>
+        <v>386.54538095238</v>
       </c>
       <c r="L57">
-        <v>386.54538095238</v>
+        <v>617.3849761904762</v>
       </c>
       <c r="M57">
-        <v>617.3849761904762</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2881,28 +3007,31 @@
         <v>181.4743392857213</v>
       </c>
       <c r="E58">
-        <v>178.9113013048112</v>
+        <v>183.6180578703975</v>
+      </c>
+      <c r="F58">
+        <v>-2.143718584676179</v>
       </c>
       <c r="G58">
-        <v>2.563037980910138</v>
+        <v>-13.28410074558397</v>
       </c>
       <c r="H58">
-        <v>9.659926204926307</v>
+        <v>0.988325121126217</v>
       </c>
       <c r="I58">
-        <v>1.014325746681276</v>
+        <v>1.593329211930617</v>
       </c>
       <c r="J58">
-        <v>1.593329211930617</v>
+        <v>1.5989775253621</v>
       </c>
       <c r="K58">
-        <v>1.586576067205157</v>
+        <v>379.5325119047581</v>
       </c>
       <c r="L58">
-        <v>379.5325119047581</v>
+        <v>604.7202380952381</v>
       </c>
       <c r="M58">
-        <v>604.7202380952381</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2919,28 +3048,31 @@
         <v>186.8434761904757</v>
       </c>
       <c r="E59">
-        <v>179.8682066101453</v>
+        <v>184.8688709310774</v>
+      </c>
+      <c r="F59">
+        <v>1.974605259398231</v>
       </c>
       <c r="G59">
-        <v>6.975269580330405</v>
+        <v>-11.30949548618574</v>
       </c>
       <c r="H59">
-        <v>16.63519578525671</v>
+        <v>1.010681112777145</v>
       </c>
       <c r="I59">
-        <v>1.038779891742897</v>
+        <v>1.61358206786293</v>
       </c>
       <c r="J59">
-        <v>1.61358206786293</v>
+        <v>1.608401307699431</v>
       </c>
       <c r="K59">
-        <v>1.595281094238231</v>
+        <v>381.1419940476272</v>
       </c>
       <c r="L59">
-        <v>381.1419940476272</v>
+        <v>615.0038869047619</v>
       </c>
       <c r="M59">
-        <v>615.0038869047619</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2957,28 +3089,31 @@
         <v>197.7116547619059</v>
       </c>
       <c r="E60">
-        <v>181.3940246010071</v>
+        <v>185.8840415287217</v>
+      </c>
+      <c r="F60">
+        <v>11.82761323318425</v>
       </c>
       <c r="G60">
-        <v>16.3176301608988</v>
+        <v>0.518117746998513</v>
       </c>
       <c r="H60">
-        <v>32.95282594615551</v>
+        <v>1.063628986845311</v>
       </c>
       <c r="I60">
-        <v>1.089956822981302</v>
+        <v>1.639602237824401</v>
       </c>
       <c r="J60">
-        <v>1.639602237824401</v>
+        <v>1.60875669308516</v>
       </c>
       <c r="K60">
-        <v>1.59704705942592</v>
+        <v>383.4464047618953</v>
       </c>
       <c r="L60">
-        <v>383.4464047618953</v>
+        <v>628.6995833333333</v>
       </c>
       <c r="M60">
-        <v>628.6995833333333</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2995,28 +3130,31 @@
         <v>197.7937559523797</v>
       </c>
       <c r="E61">
-        <v>188.9103898717241</v>
+        <v>187.2491318869175</v>
+      </c>
+      <c r="F61">
+        <v>10.54462406546222</v>
       </c>
       <c r="G61">
-        <v>8.883366080655634</v>
+        <v>11.06274181246073</v>
       </c>
       <c r="H61">
-        <v>41.83619202681115</v>
+        <v>1.05631334019658</v>
       </c>
       <c r="I61">
-        <v>1.047024232424102</v>
+        <v>1.615389789850532</v>
       </c>
       <c r="J61">
-        <v>1.615389789850532</v>
+        <v>1.588496278023952</v>
       </c>
       <c r="K61">
-        <v>1.592733229572346</v>
+        <v>392.0880297619095</v>
       </c>
       <c r="L61">
-        <v>392.0880297619095</v>
+        <v>633.375</v>
       </c>
       <c r="M61">
-        <v>633.375</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3033,28 +3171,31 @@
         <v>194.8063809523758</v>
       </c>
       <c r="E62">
-        <v>179.3593745761257</v>
+        <v>186.0622762453148</v>
+      </c>
+      <c r="F62">
+        <v>8.744104707060984</v>
       </c>
       <c r="G62">
-        <v>15.44700637625013</v>
+        <v>19.80684651952171</v>
       </c>
       <c r="H62">
-        <v>57.28319840306128</v>
+        <v>1.046995580638454</v>
       </c>
       <c r="I62">
-        <v>1.086123217215468</v>
+        <v>1.613001273864715</v>
       </c>
       <c r="J62">
-        <v>1.613001273864715</v>
+        <v>1.590289983548631</v>
       </c>
       <c r="K62">
-        <v>1.572880362910603</v>
+        <v>385.0113571428616</v>
       </c>
       <c r="L62">
-        <v>385.0113571428616</v>
+        <v>621.0238095238095</v>
       </c>
       <c r="M62">
-        <v>621.0238095238095</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3071,28 +3212,31 @@
         <v>190.078869047619</v>
       </c>
       <c r="E63">
-        <v>179.4372330427001</v>
+        <v>181.811394568756</v>
+      </c>
+      <c r="F63">
+        <v>8.267474478863022</v>
       </c>
       <c r="G63">
-        <v>10.64163600491889</v>
+        <v>28.07432099838474</v>
       </c>
       <c r="H63">
-        <v>67.92483440798017</v>
+        <v>1.045472807127809</v>
       </c>
       <c r="I63">
-        <v>1.059305618039633</v>
+        <v>1.613921658484486</v>
       </c>
       <c r="J63">
-        <v>1.613921658484486</v>
+        <v>1.59242886934804</v>
       </c>
       <c r="K63">
-        <v>1.586256808800911</v>
+        <v>384.6627083333275</v>
       </c>
       <c r="L63">
-        <v>384.6627083333275</v>
+        <v>620.8154761904761</v>
       </c>
       <c r="M63">
-        <v>620.8154761904761</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3109,27 +3253,27 @@
         <v>182.6049999999814</v>
       </c>
       <c r="E64">
-        <v>180.5025457237394</v>
+        <v>159.9790901560654</v>
+      </c>
+      <c r="F64">
+        <v>22.62590984391593</v>
       </c>
       <c r="G64">
-        <v>2.102454276241929</v>
+        <v>50.70023084230067</v>
       </c>
       <c r="H64">
-        <v>70.0272886842221</v>
+        <v>1.14143041957448</v>
       </c>
       <c r="I64">
-        <v>1.011647781851563</v>
+        <v>1.575699045392223</v>
       </c>
       <c r="J64">
-        <v>1.575699045392223</v>
+        <v>1.516721999003159</v>
       </c>
       <c r="K64">
-        <v>1.570218755572446</v>
+        <v>383.6392500000075</v>
       </c>
       <c r="L64">
-        <v>383.6392500000075</v>
-      </c>
-      <c r="M64">
         <v>604.5</v>
       </c>
     </row>
@@ -3147,25 +3291,31 @@
         <v>134.2059718309705</v>
       </c>
       <c r="E65">
-        <v>95.83784735269512</v>
+        <v>154.6295022703841</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>38.36812447827538</v>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.8679195745990232</v>
       </c>
       <c r="I65">
-        <v>1.400344180698007</v>
+        <v>1.557589502491472</v>
       </c>
       <c r="J65">
-        <v>1.557589502491472</v>
+        <v>1.622575794915018</v>
       </c>
       <c r="K65">
-        <v>1.435504725597248</v>
+        <v>314.2744366197099</v>
       </c>
       <c r="L65">
-        <v>314.2744366197099</v>
+        <v>489.5105633802817</v>
       </c>
       <c r="M65">
-        <v>489.5105633802817</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3182,25 +3332,31 @@
         <v>140.0087321428582</v>
       </c>
       <c r="E66">
-        <v>100.2601114405612</v>
+        <v>158.1917127966816</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>39.74862070229705</v>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.8850573122171492</v>
       </c>
       <c r="I66">
-        <v>1.396454982257444</v>
+        <v>1.572346885360321</v>
       </c>
       <c r="J66">
-        <v>1.572346885360321</v>
+        <v>1.62920241028032</v>
       </c>
       <c r="K66">
-        <v>1.448058753623249</v>
+        <v>319.8102678571428</v>
       </c>
       <c r="L66">
-        <v>319.8102678571428</v>
+        <v>502.8526785714286</v>
       </c>
       <c r="M66">
-        <v>502.8526785714286</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3217,25 +3373,31 @@
         <v>144.4008035714284</v>
       </c>
       <c r="E67">
-        <v>101.176363979994</v>
+        <v>161.2506918173763</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>43.22443959143436</v>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.8955050173364142</v>
       </c>
       <c r="I67">
-        <v>1.427218748441892</v>
+        <v>1.495412542330898</v>
       </c>
       <c r="J67">
-        <v>1.495412542330898</v>
+        <v>1.548066889717883</v>
       </c>
       <c r="K67">
-        <v>1.360340153444136</v>
+        <v>320.0094404761912</v>
       </c>
       <c r="L67">
-        <v>320.0094404761912</v>
+        <v>478.546130952381</v>
       </c>
       <c r="M67">
-        <v>478.546130952381</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3252,25 +3414,31 @@
         <v>142.9466011904768</v>
       </c>
       <c r="E68">
-        <v>102.2127100113445</v>
+        <v>159.6537506558605</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>40.73389117913229</v>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.8953538554731694</v>
       </c>
       <c r="I68">
-        <v>1.398520802105837</v>
+        <v>1.582180327263746</v>
       </c>
       <c r="J68">
-        <v>1.582180327263746</v>
+        <v>1.634341731812601</v>
       </c>
       <c r="K68">
-        <v>1.455005013423039</v>
+        <v>320.2971547619063</v>
       </c>
       <c r="L68">
-        <v>320.2971547619063</v>
+        <v>506.7678571428572</v>
       </c>
       <c r="M68">
-        <v>506.7678571428572</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3287,25 +3455,31 @@
         <v>140.7582857142912</v>
       </c>
       <c r="E69">
-        <v>103.7528022427904</v>
+        <v>156.2508330880756</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>37.00548347150084</v>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.9008482254616106</v>
       </c>
       <c r="I69">
-        <v>1.356669725265876</v>
+        <v>1.577623562626929</v>
       </c>
       <c r="J69">
-        <v>1.577623562626929</v>
+        <v>1.625842648218127</v>
       </c>
       <c r="K69">
-        <v>1.46244750204729</v>
+        <v>321.2949226190491</v>
       </c>
       <c r="L69">
-        <v>321.2949226190491</v>
+        <v>506.8824404761905</v>
       </c>
       <c r="M69">
-        <v>506.8824404761905</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3322,25 +3496,31 @@
         <v>139.5269047619021</v>
       </c>
       <c r="E70">
-        <v>105.2251737699449</v>
+        <v>158.8133813987119</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>34.30173099195716</v>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.8785588691144999</v>
       </c>
       <c r="I70">
-        <v>1.325984075511735</v>
+        <v>1.499982204354249</v>
       </c>
       <c r="J70">
-        <v>1.499982204354249</v>
+        <v>1.559982382773357</v>
       </c>
       <c r="K70">
-        <v>1.393269608873038</v>
+        <v>321.4403214285682</v>
       </c>
       <c r="L70">
-        <v>321.4403214285682</v>
+        <v>482.1547619047619</v>
       </c>
       <c r="M70">
-        <v>482.1547619047619</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3357,25 +3537,31 @@
         <v>147.3453333333323</v>
       </c>
       <c r="E71">
-        <v>108.1157357401273</v>
+        <v>162.368476112245</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>39.22959759320506</v>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.907475002915423</v>
       </c>
       <c r="I71">
-        <v>1.362848176767713</v>
+        <v>1.593994328535834</v>
       </c>
       <c r="J71">
-        <v>1.593994328535834</v>
+        <v>1.640668843431421</v>
       </c>
       <c r="K71">
-        <v>1.472114209032337</v>
+        <v>321.8703571428556</v>
       </c>
       <c r="L71">
-        <v>321.8703571428556</v>
+        <v>513.0595238095239</v>
       </c>
       <c r="M71">
-        <v>513.0595238095239</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3392,25 +3578,31 @@
         <v>145.3112023809559</v>
       </c>
       <c r="E72">
-        <v>109.5687810983598</v>
+        <v>157.4694775649883</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>35.74242128259613</v>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.9227896391602962</v>
       </c>
       <c r="I72">
-        <v>1.326209901436343</v>
+        <v>1.593291214306311</v>
       </c>
       <c r="J72">
-        <v>1.593291214306311</v>
+        <v>1.630825206214054</v>
       </c>
       <c r="K72">
-        <v>1.482950254681877</v>
+        <v>323.9270476190529</v>
       </c>
       <c r="L72">
-        <v>323.9270476190529</v>
+        <v>516.110119047619</v>
       </c>
       <c r="M72">
-        <v>516.110119047619</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3427,25 +3619,31 @@
         <v>144.4887559523784</v>
       </c>
       <c r="E73">
-        <v>110.3597865007995</v>
+        <v>156.9040522203854</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>34.12896945157883</v>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.9208733229491823</v>
       </c>
       <c r="I73">
-        <v>1.309251861875717</v>
+        <v>1.591420056288376</v>
       </c>
       <c r="J73">
-        <v>1.591420056288376</v>
+        <v>1.629557999065331</v>
       </c>
       <c r="K73">
-        <v>1.486580940420083</v>
+        <v>325.5366011904719</v>
       </c>
       <c r="L73">
-        <v>325.5366011904719</v>
+        <v>518.0654761904761</v>
       </c>
       <c r="M73">
-        <v>518.0654761904761</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3462,25 +3660,31 @@
         <v>144.8991190476143</v>
       </c>
       <c r="E74">
-        <v>111.3914535649336</v>
+        <v>157.7356201769991</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>33.50766548268078</v>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.918620149874958</v>
       </c>
       <c r="I74">
-        <v>1.30081002096941</v>
+        <v>1.585400082593668</v>
       </c>
       <c r="J74">
-        <v>1.585400082593668</v>
+        <v>1.624620555810425</v>
       </c>
       <c r="K74">
-        <v>1.483021211328572</v>
+        <v>327.2908273809534</v>
       </c>
       <c r="L74">
-        <v>327.2908273809534</v>
+        <v>518.8869047619048</v>
       </c>
       <c r="M74">
-        <v>518.8869047619048</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3497,25 +3701,31 @@
         <v>150.2623095238093</v>
       </c>
       <c r="E75">
-        <v>121.5181852616965</v>
+        <v>947.880581257889</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>28.74412426211279</v>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.158524515107592</v>
       </c>
       <c r="I75">
-        <v>1.236541750522448</v>
+        <v>0.2211518480156466</v>
       </c>
       <c r="J75">
-        <v>0.2211518480156466</v>
+        <v>0.5821255774800674</v>
       </c>
       <c r="K75">
-        <v>0.2081432772459152</v>
+        <v>2209.629694985043</v>
       </c>
       <c r="L75">
-        <v>2209.629694985043</v>
+        <v>488.6636904761905</v>
       </c>
       <c r="M75">
-        <v>488.6636904761905</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3532,25 +3742,31 @@
         <v>152.0430000000023</v>
       </c>
       <c r="E76">
-        <v>129.9604435526026</v>
+        <v>2518.536252145573</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>22.08255644739978</v>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.06036958962590869</v>
       </c>
       <c r="I76">
-        <v>1.169917521391512</v>
+        <v>0.08316071538262837</v>
       </c>
       <c r="J76">
-        <v>0.08316071538262837</v>
+        <v>0.4786756228728111</v>
       </c>
       <c r="K76">
-        <v>0.07947003075358007</v>
+        <v>5983.322517885898</v>
       </c>
       <c r="L76">
-        <v>5983.322517885898</v>
+        <v>497.577380952381</v>
       </c>
       <c r="M76">
-        <v>497.577380952381</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3567,25 +3783,31 @@
         <v>141.0593869047672</v>
       </c>
       <c r="E77">
-        <v>130.058102865958</v>
+        <v>2505.677077193588</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>11.00128403880919</v>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0.05629591625699698</v>
       </c>
       <c r="I77">
-        <v>1.084587455886139</v>
+        <v>0.08560584577700275</v>
       </c>
       <c r="J77">
-        <v>0.08560584577700275</v>
+        <v>0.481369956044975</v>
       </c>
       <c r="K77">
-        <v>0.08376456995161005</v>
+        <v>5974.815878801474</v>
       </c>
       <c r="L77">
-        <v>5974.815878801474</v>
+        <v>511.4791666666667</v>
       </c>
       <c r="M77">
-        <v>511.4791666666667</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3602,25 +3824,31 @@
         <v>156.4540059523757</v>
       </c>
       <c r="E78">
-        <v>131.0293050155652</v>
+        <v>2498.594875371729</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>25.42470093681044</v>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0.06261679614191124</v>
       </c>
       <c r="I78">
-        <v>1.194038279709949</v>
+        <v>0.08992120805352749</v>
       </c>
       <c r="J78">
-        <v>0.08992120805352749</v>
+        <v>0.4835812761090927</v>
       </c>
       <c r="K78">
-        <v>0.08564789997383088</v>
+        <v>5949.653163929142</v>
       </c>
       <c r="L78">
-        <v>5949.653163929142</v>
+        <v>535</v>
       </c>
       <c r="M78">
-        <v>535</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3637,25 +3865,31 @@
         <v>158.7145476190518</v>
       </c>
       <c r="E79">
-        <v>133.5235109945935</v>
+        <v>2501.366705243571</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>25.19103662445826</v>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0.06345113144999541</v>
       </c>
       <c r="I79">
-        <v>1.188663677556219</v>
+        <v>0.09059327195653993</v>
       </c>
       <c r="J79">
-        <v>0.09059327195653993</v>
+        <v>0.4836870519675929</v>
       </c>
       <c r="K79">
-        <v>0.08636625098081538</v>
+        <v>5959.52486848977</v>
       </c>
       <c r="L79">
-        <v>5959.52486848977</v>
+        <v>539.8928571428571</v>
       </c>
       <c r="M79">
-        <v>539.8928571428571</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3672,25 +3906,31 @@
         <v>156.8428750000007</v>
       </c>
       <c r="E80">
-        <v>130.9662293729463</v>
+        <v>734.8431290413783</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>25.87664562705444</v>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.2134372205461134</v>
       </c>
       <c r="I80">
-        <v>1.197582581028326</v>
+        <v>0.8809602459572561</v>
       </c>
       <c r="J80">
-        <v>0.8809602459572561</v>
+        <v>1.216479171086076</v>
       </c>
       <c r="K80">
-        <v>0.8659393108174817</v>
+        <v>1722.705369956287</v>
       </c>
       <c r="L80">
-        <v>1722.705369956287</v>
+        <v>1517.634946428572</v>
       </c>
       <c r="M80">
-        <v>1517.634946428572</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3707,28 +3947,31 @@
         <v>156.0972083333292</v>
       </c>
       <c r="E81">
-        <v>170.2699608700884</v>
+        <v>150.7338867132495</v>
       </c>
       <c r="F81">
-        <v>156.0972083333292</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>-14.17275253675916</v>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1.0355813927248</v>
       </c>
       <c r="I81">
-        <v>0.9167630481364084</v>
+        <v>1.587780193108647</v>
       </c>
       <c r="J81">
-        <v>1.587780193108647</v>
+        <v>1.571770199879942</v>
       </c>
       <c r="K81">
-        <v>1.630087123070878</v>
+        <v>334.9983690476233</v>
       </c>
       <c r="L81">
-        <v>334.9983690476233</v>
+        <v>531.9037750975085</v>
       </c>
       <c r="M81">
-        <v>531.9037750975085</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3745,25 +3988,31 @@
         <v>153.5751964285737</v>
       </c>
       <c r="E82">
-        <v>141.4019198301754</v>
+        <v>152.6345617785694</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>12.17327659839833</v>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1.006162658306504</v>
       </c>
       <c r="I82">
-        <v>1.086089896184002</v>
+        <v>1.570878098096148</v>
       </c>
       <c r="J82">
-        <v>1.570878098096148</v>
+        <v>1.568110925363815</v>
       </c>
       <c r="K82">
-        <v>1.535066575454405</v>
+        <v>339.926250000002</v>
       </c>
       <c r="L82">
-        <v>339.926250000002</v>
+        <v>533.9827010929678</v>
       </c>
       <c r="M82">
-        <v>533.9827010929678</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3780,25 +4029,31 @@
         <v>152.6765714285651</v>
       </c>
       <c r="E83">
-        <v>146.1656622488242</v>
+        <v>150.6232778977588</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>6.510909179740963</v>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1.013631980125941</v>
       </c>
       <c r="I83">
-        <v>1.044544724660825</v>
+        <v>1.558810470238923</v>
       </c>
       <c r="J83">
-        <v>1.558810470238923</v>
+        <v>1.552784212443288</v>
       </c>
       <c r="K83">
-        <v>1.539701455082345</v>
+        <v>340.7244761904724</v>
       </c>
       <c r="L83">
-        <v>340.7244761904724</v>
+        <v>531.124880952381</v>
       </c>
       <c r="M83">
-        <v>531.124880952381</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3815,25 +4070,31 @@
         <v>157.3976964285775</v>
       </c>
       <c r="E84">
-        <v>144.5024928362048</v>
+        <v>154.2539879165841</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>12.89520359237267</v>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1.020380079338328</v>
       </c>
       <c r="I84">
-        <v>1.089238623772322</v>
+        <v>1.570803371983793</v>
       </c>
       <c r="J84">
-        <v>1.570803371983793</v>
+        <v>1.561632169622951</v>
       </c>
       <c r="K84">
-        <v>1.533183942199281</v>
+        <v>342.7804107142867</v>
       </c>
       <c r="L84">
-        <v>342.7804107142867</v>
+        <v>538.4406250000001</v>
       </c>
       <c r="M84">
-        <v>538.4406250000001</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3850,25 +4111,31 @@
         <v>150.4058869047634</v>
       </c>
       <c r="E85">
-        <v>144.7895712089107</v>
+        <v>149.8152226645259</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>5.616315695852705</v>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1.003942618311626</v>
       </c>
       <c r="I85">
-        <v>1.038789504305867</v>
+        <v>1.560848303349736</v>
       </c>
       <c r="J85">
-        <v>1.560848303349736</v>
+        <v>1.559123387974313</v>
       </c>
       <c r="K85">
-        <v>1.544446989985804</v>
+        <v>342.4308511904729</v>
       </c>
       <c r="L85">
-        <v>342.4308511904729</v>
+        <v>534.4826130952381</v>
       </c>
       <c r="M85">
-        <v>534.4826130952381</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3885,25 +4152,31 @@
         <v>150.0719345238093</v>
       </c>
       <c r="E86">
-        <v>142.1482829125599</v>
+        <v>148.9184643458958</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>7.923651611249426</v>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1.007745649157611</v>
       </c>
       <c r="I86">
-        <v>1.055742154944802</v>
+        <v>1.547534877460135</v>
       </c>
       <c r="J86">
-        <v>1.547534877460135</v>
+        <v>1.544166545805853</v>
       </c>
       <c r="K86">
-        <v>1.524396449566005</v>
+        <v>342.4455476190529</v>
       </c>
       <c r="L86">
-        <v>342.4455476190529</v>
+        <v>529.9464285714286</v>
       </c>
       <c r="M86">
-        <v>529.9464285714286</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3920,28 +4193,31 @@
         <v>152.2536964285675</v>
       </c>
       <c r="E87">
-        <v>147.2073879622876</v>
+        <v>145.6629314091923</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>5.046308466279982</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>5.046308466279982</v>
+        <v>1.045246686686956</v>
       </c>
       <c r="I87">
-        <v>1.034280266338078</v>
+        <v>1.559609421173874</v>
       </c>
       <c r="J87">
-        <v>1.559609421173874</v>
+        <v>1.540464493763287</v>
       </c>
       <c r="K87">
-        <v>1.544950848308001</v>
+        <v>344.256464285715</v>
       </c>
       <c r="L87">
-        <v>344.256464285715</v>
+        <v>536.905625</v>
       </c>
       <c r="M87">
-        <v>536.905625</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3958,28 +4234,31 @@
         <v>157.0354821428634</v>
       </c>
       <c r="E88">
-        <v>151.1306341633781</v>
+        <v>151.1502679938704</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>5.904847979485282</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>10.95115644576526</v>
+        <v>1.038936180710125</v>
       </c>
       <c r="I88">
-        <v>1.039071152001532</v>
+        <v>1.569419507488795</v>
       </c>
       <c r="J88">
-        <v>1.569419507488795</v>
+        <v>1.55264447743385</v>
       </c>
       <c r="K88">
-        <v>1.552588513778448</v>
+        <v>350.8318095238092</v>
       </c>
       <c r="L88">
-        <v>350.8318095238092</v>
+        <v>550.6022857142857</v>
       </c>
       <c r="M88">
-        <v>550.6022857142857</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3996,28 +4275,31 @@
         <v>151.8791547618984</v>
       </c>
       <c r="E89">
-        <v>147.2711530179479</v>
+        <v>151.3772036866484</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>4.608001743950439</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>15.5591581897157</v>
+        <v>1.003315896073025</v>
       </c>
       <c r="I89">
-        <v>1.031289235193187</v>
+        <v>1.548852670984837</v>
       </c>
       <c r="J89">
-        <v>1.548852670984837</v>
+        <v>1.547412523362798</v>
       </c>
       <c r="K89">
-        <v>1.535631855090386</v>
+        <v>348.5414047619062</v>
       </c>
       <c r="L89">
-        <v>348.5414047619062</v>
+        <v>539.8392857142857</v>
       </c>
       <c r="M89">
-        <v>539.8392857142857</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4034,28 +4316,31 @@
         <v>148.30996428572</v>
       </c>
       <c r="E90">
-        <v>145.9409135964102</v>
+        <v>150.0558700498584</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>2.369050689309802</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>17.9282088790255</v>
+        <v>0.9883649619067998</v>
       </c>
       <c r="I90">
-        <v>1.016232944079419</v>
+        <v>1.535492302740842</v>
       </c>
       <c r="J90">
-        <v>1.535492302740842</v>
+        <v>1.540533026392636</v>
       </c>
       <c r="K90">
-        <v>1.52865245485948</v>
+        <v>346.3601428571412</v>
       </c>
       <c r="L90">
-        <v>346.3601428571412</v>
+        <v>531.8333333333334</v>
       </c>
       <c r="M90">
-        <v>531.8333333333334</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4072,28 +4357,31 @@
         <v>158.1438511904728</v>
       </c>
       <c r="E91">
-        <v>147.4665394557785</v>
+        <v>152.5077765011403</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>10.67731173469431</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>28.60552061371982</v>
+        <v>1.036955982302255</v>
       </c>
       <c r="I91">
-        <v>1.072404979286139</v>
+        <v>1.56272533373313</v>
       </c>
       <c r="J91">
-        <v>1.56272533373313</v>
+        <v>1.546492552225222</v>
       </c>
       <c r="K91">
-        <v>1.531972996683878</v>
+        <v>347.2032619047566</v>
       </c>
       <c r="L91">
-        <v>347.2032619047566</v>
+        <v>542.5833333333334</v>
       </c>
       <c r="M91">
-        <v>542.5833333333334</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4110,31 +4398,31 @@
         <v>144.3952142857126</v>
       </c>
       <c r="E92">
-        <v>145.9708069980856</v>
+        <v>147.5998250432984</v>
       </c>
       <c r="F92">
-        <v>144.3952142857126</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>-1.575592712373009</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>27.02992790134681</v>
+        <v>0.9782885192672436</v>
       </c>
       <c r="I92">
-        <v>0.9892061108328758</v>
+        <v>1.525146884594245</v>
       </c>
       <c r="J92">
-        <v>1.525146884594245</v>
+        <v>1.534388991885071</v>
       </c>
       <c r="K92">
-        <v>1.529690898827464</v>
+        <v>346.7402678571442</v>
       </c>
       <c r="L92">
-        <v>346.7402678571442</v>
+        <v>528.8298392857143</v>
       </c>
       <c r="M92">
-        <v>528.8298392857143</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4151,31 +4439,31 @@
         <v>145.9704999999986</v>
       </c>
       <c r="E93">
-        <v>147.493584790448</v>
+        <v>147.1306517031884</v>
       </c>
       <c r="F93">
-        <v>145.9704999999986</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>-1.523084790449388</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>25.50684311089742</v>
+        <v>0.9921148197893515</v>
       </c>
       <c r="I93">
-        <v>0.9896735522930484</v>
+        <v>1.530192496413252</v>
       </c>
       <c r="J93">
-        <v>1.530192496413252</v>
+        <v>1.533538840451344</v>
       </c>
       <c r="K93">
-        <v>1.534585685419496</v>
+        <v>346.6922976190468</v>
       </c>
       <c r="L93">
-        <v>346.6922976190468</v>
+        <v>530.5059523809524</v>
       </c>
       <c r="M93">
-        <v>530.5059523809524</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4192,31 +4480,31 @@
         <v>137.1910416666707</v>
       </c>
       <c r="E94">
-        <v>147.4503099945994</v>
+        <v>146.5751301568946</v>
       </c>
       <c r="F94">
-        <v>137.1910416666707</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>-10.25926832792877</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>15.24757478296866</v>
+        <v>0.9359776213046564</v>
       </c>
       <c r="I94">
-        <v>0.9304221989882251</v>
+        <v>1.508090070702715</v>
       </c>
       <c r="J94">
-        <v>1.508090070702715</v>
+        <v>1.535146361680138</v>
       </c>
       <c r="K94">
-        <v>1.537669688305966</v>
+        <v>346.8357321428567</v>
       </c>
       <c r="L94">
-        <v>346.8357321428567</v>
+        <v>523.0595238095239</v>
       </c>
       <c r="M94">
-        <v>523.0595238095239</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4233,31 +4521,31 @@
         <v>148.550464285715</v>
       </c>
       <c r="E95">
-        <v>149.7099234071194</v>
+        <v>149.5998146687054</v>
       </c>
       <c r="F95">
-        <v>148.550464285715</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>-1.159459121404439</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>14.08811566156422</v>
+        <v>0.9929856170924126</v>
       </c>
       <c r="I95">
-        <v>0.9922552954739585</v>
+        <v>1.543056571904535</v>
       </c>
       <c r="J95">
-        <v>1.543056571904535</v>
+        <v>1.546062060544356</v>
       </c>
       <c r="K95">
-        <v>1.5463774276208</v>
+        <v>349.1446845238097</v>
       </c>
       <c r="L95">
-        <v>349.1446845238097</v>
+        <v>538.75</v>
       </c>
       <c r="M95">
-        <v>538.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4274,31 +4562,31 @@
         <v>148.1289345238058</v>
       </c>
       <c r="E96">
-        <v>150.576685131455</v>
+        <v>151.1467922160408</v>
       </c>
       <c r="F96">
-        <v>148.1289345238058</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>-2.447750607649112</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>11.6403650539151</v>
+        <v>0.9800335974850102</v>
       </c>
       <c r="I96">
-        <v>0.9837441592932386</v>
+        <v>1.543234943406895</v>
       </c>
       <c r="J96">
-        <v>1.543234943406895</v>
+        <v>1.55184034428612</v>
       </c>
       <c r="K96">
-        <v>1.550214687775022</v>
+        <v>350.6934464285704</v>
       </c>
       <c r="L96">
-        <v>350.6934464285704</v>
+        <v>541.202380952381</v>
       </c>
       <c r="M96">
-        <v>541.202380952381</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4315,31 +4603,31 @@
         <v>148.7178750000007</v>
       </c>
       <c r="E97">
-        <v>152.3479115623471</v>
+        <v>150.0896963079265</v>
       </c>
       <c r="F97">
-        <v>148.7178750000007</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-3.630036562346362</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>8.010328491568742</v>
+        <v>0.9908599901147686</v>
       </c>
       <c r="I97">
-        <v>0.9761727185813059</v>
+        <v>1.551949716378851</v>
       </c>
       <c r="J97">
-        <v>1.551949716378851</v>
+        <v>1.55584716173332</v>
       </c>
       <c r="K97">
-        <v>1.562262917562365</v>
+        <v>351.9796130952392</v>
       </c>
       <c r="L97">
-        <v>351.9796130952392</v>
+        <v>546.2546607142857</v>
       </c>
       <c r="M97">
-        <v>546.2546607142857</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4356,31 +4644,31 @@
         <v>149.8686607142833</v>
       </c>
       <c r="E98">
-        <v>152.7689734045467</v>
+        <v>151.7328174491492</v>
       </c>
       <c r="F98">
-        <v>149.8686607142833</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>-2.900312690263405</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>5.110015801305337</v>
+        <v>0.9877142152488488</v>
       </c>
       <c r="I98">
-        <v>0.9810150410411995</v>
+        <v>1.545537786875197</v>
       </c>
       <c r="J98">
-        <v>1.545537786875197</v>
+        <v>1.550819466275676</v>
       </c>
       <c r="K98">
-        <v>1.553755187002881</v>
+        <v>352.9477261904782</v>
       </c>
       <c r="L98">
-        <v>352.9477261904782</v>
+        <v>545.4940476190476</v>
       </c>
       <c r="M98">
-        <v>545.4940476190476</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4397,31 +4685,31 @@
         <v>153.2249880952406</v>
       </c>
       <c r="E99">
-        <v>153.4964171846957</v>
+        <v>155.9768625214436</v>
       </c>
       <c r="F99">
-        <v>153.2249880952406</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.2714290894551254</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>4.838586711850212</v>
+        <v>0.9823571625834909</v>
       </c>
       <c r="I99">
-        <v>0.9982316910424787</v>
+        <v>1.548289623279574</v>
       </c>
       <c r="J99">
-        <v>1.548289623279574</v>
+        <v>1.556088679369513</v>
       </c>
       <c r="K99">
-        <v>1.549058877382503</v>
+        <v>352.847113095235</v>
       </c>
       <c r="L99">
-        <v>352.847113095235</v>
+        <v>546.3095238095239</v>
       </c>
       <c r="M99">
-        <v>546.3095238095239</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4438,31 +4726,31 @@
         <v>154.2299345238079</v>
       </c>
       <c r="E100">
-        <v>159.0736330899011</v>
+        <v>154.96937297445</v>
       </c>
       <c r="F100">
-        <v>154.2299345238079</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>-4.843698566093252</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>-0.00511185424304017</v>
+        <v>0.9952284865296315</v>
       </c>
       <c r="I100">
-        <v>0.9695505881646909</v>
+        <v>1.541009956893704</v>
       </c>
       <c r="J100">
-        <v>1.541009956893704</v>
+        <v>1.5430874983344</v>
       </c>
       <c r="K100">
-        <v>1.554618911754736</v>
+        <v>355.9199523809532</v>
       </c>
       <c r="L100">
-        <v>355.9199523809532</v>
+        <v>548.4761904761905</v>
       </c>
       <c r="M100">
-        <v>548.4761904761905</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4479,31 +4767,31 @@
         <v>150.5623452380976</v>
       </c>
       <c r="E101">
-        <v>157.2147833912834</v>
+        <v>153.8068462561213</v>
       </c>
       <c r="F101">
-        <v>150.5623452380976</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>-6.652438153185869</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>-6.65755000742891</v>
+        <v>0.9789053537147435</v>
       </c>
       <c r="I101">
-        <v>0.9576856704586809</v>
+        <v>1.531794692153567</v>
       </c>
       <c r="J101">
-        <v>1.531794692153567</v>
+        <v>1.540912275430181</v>
       </c>
       <c r="K101">
-        <v>1.550489141166605</v>
+        <v>355.8509880952437</v>
       </c>
       <c r="L101">
-        <v>355.8509880952437</v>
+        <v>545.0906547619048</v>
       </c>
       <c r="M101">
-        <v>545.0906547619048</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4520,28 +4808,31 @@
         <v>158.337166666663</v>
       </c>
       <c r="E102">
-        <v>152.3546587686983</v>
+        <v>154.8723022349019</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>5.982507897964723</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>-0.6750421094641865</v>
+        <v>1.02237239572061</v>
       </c>
       <c r="I102">
-        <v>1.039266983670301</v>
+        <v>1.551825866658735</v>
       </c>
       <c r="J102">
-        <v>1.551825866658735</v>
+        <v>1.542091360166521</v>
       </c>
       <c r="K102">
-        <v>1.535018062740456</v>
+        <v>355.9363214285667</v>
       </c>
       <c r="L102">
-        <v>355.9363214285667</v>
+        <v>552.3511904761905</v>
       </c>
       <c r="M102">
-        <v>552.3511904761905</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4558,28 +4849,31 @@
         <v>155.2170833333373</v>
       </c>
       <c r="E103">
-        <v>154.2440573764782</v>
+        <v>155.1062633025237</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.9730259568590895</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0.297983847394903</v>
+        <v>1.00071447811619</v>
       </c>
       <c r="I103">
-        <v>1.006308352966132</v>
+        <v>1.541391284642335</v>
       </c>
       <c r="J103">
-        <v>1.541391284642335</v>
+        <v>1.541081335502792</v>
       </c>
       <c r="K103">
-        <v>1.538669858237133</v>
+        <v>357.5426309523783</v>
       </c>
       <c r="L103">
-        <v>357.5426309523783</v>
+        <v>551.1130952380952</v>
       </c>
       <c r="M103">
-        <v>551.1130952380952</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4596,31 +4890,31 @@
         <v>150.4812380952339</v>
       </c>
       <c r="E104">
-        <v>157.2297583467535</v>
+        <v>158.2787981330455</v>
       </c>
       <c r="F104">
-        <v>150.4812380952339</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>-6.748520251519579</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>-6.450536404124676</v>
+        <v>0.9507352840065342</v>
       </c>
       <c r="I104">
-        <v>0.957078606985858</v>
+        <v>1.524838044019881</v>
       </c>
       <c r="J104">
-        <v>1.524838044019881</v>
+        <v>1.546492345788618</v>
       </c>
       <c r="K104">
-        <v>1.543579098056042</v>
+        <v>360.0928869047646</v>
       </c>
       <c r="L104">
-        <v>360.0928869047646</v>
+        <v>549.0833333333334</v>
       </c>
       <c r="M104">
-        <v>549.0833333333334</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4637,31 +4931,31 @@
         <v>150.4646190476293</v>
       </c>
       <c r="E105">
-        <v>157.3751001786952</v>
+        <v>155.9312647611605</v>
       </c>
       <c r="F105">
-        <v>150.4646190476293</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>-6.910481131065893</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>-13.36101753519057</v>
+        <v>0.9649419523281334</v>
       </c>
       <c r="I105">
-        <v>0.9560891073415094</v>
+        <v>1.530703656965332</v>
       </c>
       <c r="J105">
-        <v>1.530703656965332</v>
+        <v>1.545841759963428</v>
       </c>
       <c r="K105">
-        <v>1.549839994055833</v>
+        <v>361.1182797619064</v>
       </c>
       <c r="L105">
-        <v>361.1182797619064</v>
+        <v>552.7650714285713</v>
       </c>
       <c r="M105">
-        <v>552.7650714285713</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4678,31 +4972,31 @@
         <v>154.9318988095259</v>
       </c>
       <c r="E106">
-        <v>158.0554943440242</v>
+        <v>161.2658054169062</v>
       </c>
       <c r="F106">
-        <v>154.9318988095259</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>-3.123595534498236</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>-16.48461306968881</v>
+        <v>0.9607238088012162</v>
       </c>
       <c r="I106">
-        <v>0.9802373492458326</v>
+        <v>1.558349824050244</v>
       </c>
       <c r="J106">
-        <v>1.558349824050244</v>
+        <v>1.57583734875986</v>
       </c>
       <c r="K106">
-        <v>1.566973878283809</v>
+        <v>362.19572023809</v>
       </c>
       <c r="L106">
-        <v>362.19572023809</v>
+        <v>564.4276369047618</v>
       </c>
       <c r="M106">
-        <v>564.4276369047618</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4719,28 +5013,31 @@
         <v>160.2658154761884</v>
       </c>
       <c r="E107">
-        <v>159.1638218783199</v>
+        <v>157.5998220198986</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1.101993597868557</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>-15.38261947182025</v>
+        <v>1.016916221237567</v>
       </c>
       <c r="I107">
-        <v>1.006923643733002</v>
+        <v>1.562263884482379</v>
       </c>
       <c r="J107">
-        <v>1.562263884482379</v>
+        <v>1.554932809515883</v>
       </c>
       <c r="K107">
-        <v>1.559233570338316</v>
+        <v>363.656553571434</v>
       </c>
       <c r="L107">
-        <v>363.656553571434</v>
+        <v>568.1274999999999</v>
       </c>
       <c r="M107">
-        <v>568.1274999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4757,28 +5054,31 @@
         <v>166.2139940476156</v>
       </c>
       <c r="E108">
-        <v>161.7353099294105</v>
+        <v>157.8899805313582</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>4.478684118205081</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>-10.90393535361517</v>
+        <v>1.052720340380333</v>
       </c>
       <c r="I108">
-        <v>1.027691443013649</v>
+        <v>1.579345157025566</v>
       </c>
       <c r="J108">
-        <v>1.579345157025566</v>
+        <v>1.556560900646736</v>
       </c>
       <c r="K108">
-        <v>1.56708622844626</v>
+        <v>365.3405833333354</v>
       </c>
       <c r="L108">
-        <v>365.3405833333354</v>
+        <v>576.998880952381</v>
       </c>
       <c r="M108">
-        <v>576.998880952381</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4795,28 +5095,31 @@
         <v>167.3687499999956</v>
       </c>
       <c r="E109">
-        <v>163.2612635425223</v>
+        <v>164.4964293230406</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>4.1074864574733</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>-6.796448896141868</v>
+        <v>1.017461294988441</v>
       </c>
       <c r="I109">
-        <v>1.025158977508486</v>
+        <v>1.577470453258754</v>
       </c>
       <c r="J109">
-        <v>1.577470453258754</v>
+        <v>1.569640210281676</v>
       </c>
       <c r="K109">
-        <v>1.566273020727938</v>
+        <v>366.8239523809503</v>
       </c>
       <c r="L109">
-        <v>366.8239523809503</v>
+        <v>578.6539464285715</v>
       </c>
       <c r="M109">
-        <v>578.6539464285715</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4833,28 +5136,31 @@
         <v>167.1621369047623</v>
       </c>
       <c r="E110">
-        <v>162.5532928554107</v>
+        <v>163.8692706275791</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>4.608844049351518</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>-2.18760484679035</v>
+        <v>1.020094470821603</v>
       </c>
       <c r="I110">
-        <v>1.028352818748809</v>
+        <v>1.587933394553531</v>
       </c>
       <c r="J110">
-        <v>1.587933394553531</v>
+        <v>1.578943403081213</v>
       </c>
       <c r="K110">
-        <v>1.575350597314538</v>
+        <v>366.2813571428525</v>
       </c>
       <c r="L110">
-        <v>366.2813571428525</v>
+        <v>581.6303988095236</v>
       </c>
       <c r="M110">
-        <v>581.6303988095236</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4871,31 +5177,31 @@
         <v>164.4951964285713</v>
       </c>
       <c r="E111">
-        <v>168.5436932111609</v>
+        <v>165.0337284204268</v>
       </c>
       <c r="F111">
-        <v>164.4951964285713</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>-4.048496782589666</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>-6.236101629380016</v>
+        <v>0.9967368367847597</v>
       </c>
       <c r="I111">
-        <v>0.9759795415333786</v>
+        <v>1.573310721672806</v>
       </c>
       <c r="J111">
-        <v>1.573310721672806</v>
+        <v>1.574762832595814</v>
       </c>
       <c r="K111">
-        <v>1.584227188082731</v>
+        <v>370.8614702381061</v>
       </c>
       <c r="L111">
-        <v>370.8614702381061</v>
+        <v>583.4803273809524</v>
       </c>
       <c r="M111">
-        <v>583.4803273809524</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4912,28 +5218,31 @@
         <v>173.2202976190463</v>
       </c>
       <c r="E112">
-        <v>171.3138113319512</v>
+        <v>166.2821394826832</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>1.906486287095106</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>-4.32961534228491</v>
+        <v>1.041725215696335</v>
       </c>
       <c r="I112">
-        <v>1.011128619883431</v>
+        <v>1.58316812519325</v>
       </c>
       <c r="J112">
-        <v>1.58316812519325</v>
+        <v>1.564573416394278</v>
       </c>
       <c r="K112">
-        <v>1.578058619667285</v>
+        <v>373.1253988095171</v>
       </c>
       <c r="L112">
-        <v>373.1253988095171</v>
+        <v>590.7202380952381</v>
       </c>
       <c r="M112">
-        <v>590.7202380952381</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4950,28 +5259,31 @@
         <v>175.1457976190528</v>
       </c>
       <c r="E113">
-        <v>173.9126046603456</v>
+        <v>175.3893679509762</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>1.233192958707292</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>-3.096422383577618</v>
+        <v>0.9986112594237101</v>
       </c>
       <c r="I113">
-        <v>1.00709087740429</v>
+        <v>1.596230442639184</v>
       </c>
       <c r="J113">
-        <v>1.596230442639184</v>
+        <v>1.596879508498238</v>
       </c>
       <c r="K113">
-        <v>1.592944231872864</v>
+        <v>375.262892857144</v>
       </c>
       <c r="L113">
-        <v>375.262892857144</v>
+        <v>599.0060535714285</v>
       </c>
       <c r="M113">
-        <v>599.0060535714285</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4988,28 +5300,31 @@
         <v>178.8955476190451</v>
       </c>
       <c r="E114">
-        <v>172.310273123427</v>
+        <v>179.3276510694548</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>6.585274495618137</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>3.488852112040519</v>
+        <v>0.9975904248573336</v>
       </c>
       <c r="I114">
-        <v>1.038217538491748</v>
+        <v>1.607968930666337</v>
       </c>
       <c r="J114">
-        <v>1.607968930666337</v>
+        <v>1.609123372266538</v>
       </c>
       <c r="K114">
-        <v>1.590375192825833</v>
+        <v>374.296499999994</v>
       </c>
       <c r="L114">
-        <v>374.296499999994</v>
+        <v>601.8571428571429</v>
       </c>
       <c r="M114">
-        <v>601.8571428571429</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5026,31 +5341,31 @@
         <v>172.564595238095</v>
       </c>
       <c r="E115">
-        <v>173.7566277845729</v>
+        <v>172.5371725861211</v>
       </c>
       <c r="F115">
-        <v>172.564595238095</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>-1.192032546477947</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>2.296819565562572</v>
+        <v>1.00015893764551</v>
       </c>
       <c r="I115">
-        <v>0.9931396427193796</v>
+        <v>1.579236706502634</v>
       </c>
       <c r="J115">
-        <v>1.579236706502634</v>
+        <v>1.579163589419889</v>
       </c>
       <c r="K115">
-        <v>1.582415025740961</v>
+        <v>375.0512321428673</v>
       </c>
       <c r="L115">
-        <v>375.0512321428673</v>
+        <v>592.2946726190477</v>
       </c>
       <c r="M115">
-        <v>592.2946726190477</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5067,31 +5382,31 @@
         <v>170.0147678571465</v>
       </c>
       <c r="E116">
-        <v>174.5255041584734</v>
+        <v>171.4509159512136</v>
       </c>
       <c r="F116">
-        <v>170.0147678571465</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>-4.510736301326887</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>-2.213916735764315</v>
+        <v>0.9916235612618378</v>
       </c>
       <c r="I116">
-        <v>0.9741542857986474</v>
+        <v>1.560486156660549</v>
       </c>
       <c r="J116">
-        <v>1.560486156660549</v>
+        <v>1.564317780166184</v>
       </c>
       <c r="K116">
-        <v>1.57252073952236</v>
+        <v>374.8145119047591</v>
       </c>
       <c r="L116">
-        <v>374.8145119047591</v>
+        <v>584.8928571428571</v>
       </c>
       <c r="M116">
-        <v>584.8928571428571</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5108,31 +5423,31 @@
         <v>172.4510654761855</v>
       </c>
       <c r="E117">
-        <v>173.5963788082808</v>
+        <v>176.1123861937075</v>
       </c>
       <c r="F117">
-        <v>172.4510654761855</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="G117">
-        <v>-1.145313332095299</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="H117">
-        <v>-3.359230067859613</v>
+        <v>0.9792103167945559</v>
       </c>
       <c r="I117">
-        <v>0.9934024353505658</v>
+        <v>1.573893975160251</v>
       </c>
       <c r="J117">
-        <v>1.573893975160251</v>
+        <v>1.583661666017127</v>
       </c>
       <c r="K117">
-        <v>1.576949448150811</v>
+        <v>374.8399464285689</v>
       </c>
       <c r="L117">
-        <v>374.8399464285689</v>
+        <v>589.9583333333334</v>
       </c>
       <c r="M117">
-        <v>589.9583333333334</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5149,28 +5464,31 @@
         <v>175.1705357142879</v>
       </c>
       <c r="E118">
-        <v>174.8275461848048</v>
+        <v>180.9860744791596</v>
+      </c>
+      <c r="F118">
+        <v>-5.815538764871661</v>
       </c>
       <c r="G118">
-        <v>0.3429895294831624</v>
+        <v>-9.47685948239365</v>
       </c>
       <c r="H118">
-        <v>-3.016240538376451</v>
+        <v>0.9678674794090785</v>
       </c>
       <c r="I118">
-        <v>1.001961873497444</v>
+        <v>1.576511399514425</v>
       </c>
       <c r="J118">
-        <v>1.576511399514425</v>
+        <v>1.591988371081941</v>
       </c>
       <c r="K118">
-        <v>1.575598596864423</v>
+        <v>375.7543095238119</v>
       </c>
       <c r="L118">
-        <v>375.7543095238119</v>
+        <v>592.3809523809524</v>
       </c>
       <c r="M118">
-        <v>592.3809523809524</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5187,28 +5505,31 @@
         <v>182.8107678571472</v>
       </c>
       <c r="E119">
-        <v>173.2067700234884</v>
+        <v>183.671769363045</v>
+      </c>
+      <c r="F119">
+        <v>-0.8610015058978036</v>
       </c>
       <c r="G119">
-        <v>9.603997833658752</v>
+        <v>-10.33786098829145</v>
       </c>
       <c r="H119">
-        <v>6.587757295282302</v>
+        <v>0.995312281746489</v>
       </c>
       <c r="I119">
-        <v>1.055448166560443</v>
+        <v>1.600224805410661</v>
       </c>
       <c r="J119">
-        <v>1.600224805410661</v>
+        <v>1.602510406928294</v>
       </c>
       <c r="K119">
-        <v>1.574730178660775</v>
+        <v>376.7067440476191</v>
       </c>
       <c r="L119">
-        <v>376.7067440476191</v>
+        <v>602.8154761904761</v>
       </c>
       <c r="M119">
-        <v>602.8154761904761</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5225,28 +5546,31 @@
         <v>184.3406488095144</v>
       </c>
       <c r="E120">
-        <v>183.8315178807806</v>
+        <v>185.1431699821308</v>
+      </c>
+      <c r="F120">
+        <v>-0.8025211726163377</v>
       </c>
       <c r="G120">
-        <v>0.5091309287338674</v>
+        <v>-11.14038216090779</v>
       </c>
       <c r="H120">
-        <v>7.096888224016169</v>
+        <v>0.9956654022252411</v>
       </c>
       <c r="I120">
-        <v>1.002769551895144</v>
+        <v>1.597186272590634</v>
       </c>
       <c r="J120">
-        <v>1.597186272590634</v>
+        <v>1.599262409603678</v>
       </c>
       <c r="K120">
-        <v>1.595869141527059</v>
+        <v>386.54538095238</v>
       </c>
       <c r="L120">
-        <v>386.54538095238</v>
+        <v>617.3849761904762</v>
       </c>
       <c r="M120">
-        <v>617.3849761904762</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5263,28 +5587,31 @@
         <v>181.4743392857213</v>
       </c>
       <c r="E121">
-        <v>178.9113013048112</v>
+        <v>183.6180578703975</v>
+      </c>
+      <c r="F121">
+        <v>-2.143718584676179</v>
       </c>
       <c r="G121">
-        <v>2.563037980910138</v>
+        <v>-13.28410074558397</v>
       </c>
       <c r="H121">
-        <v>9.659926204926307</v>
+        <v>0.988325121126217</v>
       </c>
       <c r="I121">
-        <v>1.014325746681276</v>
+        <v>1.593329211930617</v>
       </c>
       <c r="J121">
-        <v>1.593329211930617</v>
+        <v>1.5989775253621</v>
       </c>
       <c r="K121">
-        <v>1.586576067205157</v>
+        <v>379.5325119047581</v>
       </c>
       <c r="L121">
-        <v>379.5325119047581</v>
+        <v>604.7202380952381</v>
       </c>
       <c r="M121">
-        <v>604.7202380952381</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5301,28 +5628,31 @@
         <v>186.8434761904757</v>
       </c>
       <c r="E122">
-        <v>179.8682066101453</v>
+        <v>184.8688709310774</v>
+      </c>
+      <c r="F122">
+        <v>1.974605259398231</v>
       </c>
       <c r="G122">
-        <v>6.975269580330405</v>
+        <v>-11.30949548618574</v>
       </c>
       <c r="H122">
-        <v>16.63519578525671</v>
+        <v>1.010681112777145</v>
       </c>
       <c r="I122">
-        <v>1.038779891742897</v>
+        <v>1.61358206786293</v>
       </c>
       <c r="J122">
-        <v>1.61358206786293</v>
+        <v>1.608401307699431</v>
       </c>
       <c r="K122">
-        <v>1.595281094238231</v>
+        <v>381.1419940476272</v>
       </c>
       <c r="L122">
-        <v>381.1419940476272</v>
+        <v>615.0038869047619</v>
       </c>
       <c r="M122">
-        <v>615.0038869047619</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5339,28 +5669,31 @@
         <v>197.7116547619059</v>
       </c>
       <c r="E123">
-        <v>181.3940246010071</v>
+        <v>185.8840415287217</v>
+      </c>
+      <c r="F123">
+        <v>11.82761323318425</v>
       </c>
       <c r="G123">
-        <v>16.3176301608988</v>
+        <v>0.518117746998513</v>
       </c>
       <c r="H123">
-        <v>32.95282594615551</v>
+        <v>1.063628986845311</v>
       </c>
       <c r="I123">
-        <v>1.089956822981302</v>
+        <v>1.639602237824401</v>
       </c>
       <c r="J123">
-        <v>1.639602237824401</v>
+        <v>1.60875669308516</v>
       </c>
       <c r="K123">
-        <v>1.59704705942592</v>
+        <v>383.4464047618953</v>
       </c>
       <c r="L123">
-        <v>383.4464047618953</v>
+        <v>628.6995833333333</v>
       </c>
       <c r="M123">
-        <v>628.6995833333333</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5377,28 +5710,31 @@
         <v>197.7937559523797</v>
       </c>
       <c r="E124">
-        <v>188.9103898717241</v>
+        <v>187.2491318869175</v>
+      </c>
+      <c r="F124">
+        <v>10.54462406546222</v>
       </c>
       <c r="G124">
-        <v>8.883366080655634</v>
+        <v>11.06274181246073</v>
       </c>
       <c r="H124">
-        <v>41.83619202681115</v>
+        <v>1.05631334019658</v>
       </c>
       <c r="I124">
-        <v>1.047024232424102</v>
+        <v>1.615389789850532</v>
       </c>
       <c r="J124">
-        <v>1.615389789850532</v>
+        <v>1.588496278023952</v>
       </c>
       <c r="K124">
-        <v>1.592733229572346</v>
+        <v>392.0880297619095</v>
       </c>
       <c r="L124">
-        <v>392.0880297619095</v>
+        <v>633.375</v>
       </c>
       <c r="M124">
-        <v>633.375</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5415,28 +5751,31 @@
         <v>194.8063809523758</v>
       </c>
       <c r="E125">
-        <v>179.3593745761257</v>
+        <v>186.0622762453148</v>
+      </c>
+      <c r="F125">
+        <v>8.744104707060984</v>
       </c>
       <c r="G125">
-        <v>15.44700637625013</v>
+        <v>19.80684651952171</v>
       </c>
       <c r="H125">
-        <v>57.28319840306128</v>
+        <v>1.046995580638454</v>
       </c>
       <c r="I125">
-        <v>1.086123217215468</v>
+        <v>1.613001273864715</v>
       </c>
       <c r="J125">
-        <v>1.613001273864715</v>
+        <v>1.590289983548631</v>
       </c>
       <c r="K125">
-        <v>1.572880362910603</v>
+        <v>385.0113571428616</v>
       </c>
       <c r="L125">
-        <v>385.0113571428616</v>
+        <v>621.0238095238095</v>
       </c>
       <c r="M125">
-        <v>621.0238095238095</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5453,28 +5792,31 @@
         <v>190.078869047619</v>
       </c>
       <c r="E126">
-        <v>179.4372330427001</v>
+        <v>181.811394568756</v>
+      </c>
+      <c r="F126">
+        <v>8.267474478863022</v>
       </c>
       <c r="G126">
-        <v>10.64163600491889</v>
+        <v>28.07432099838474</v>
       </c>
       <c r="H126">
-        <v>67.92483440798017</v>
+        <v>1.045472807127809</v>
       </c>
       <c r="I126">
-        <v>1.059305618039633</v>
+        <v>1.613921658484486</v>
       </c>
       <c r="J126">
-        <v>1.613921658484486</v>
+        <v>1.59242886934804</v>
       </c>
       <c r="K126">
-        <v>1.586256808800911</v>
+        <v>384.6627083333275</v>
       </c>
       <c r="L126">
-        <v>384.6627083333275</v>
+        <v>620.8154761904761</v>
       </c>
       <c r="M126">
-        <v>620.8154761904761</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5491,27 +5833,27 @@
         <v>182.6049999999814</v>
       </c>
       <c r="E127">
-        <v>180.5025457237394</v>
+        <v>159.9790901560654</v>
+      </c>
+      <c r="F127">
+        <v>22.62590984391593</v>
       </c>
       <c r="G127">
-        <v>2.102454276241929</v>
+        <v>50.70023084230067</v>
       </c>
       <c r="H127">
-        <v>70.0272886842221</v>
+        <v>1.14143041957448</v>
       </c>
       <c r="I127">
-        <v>1.011647781851563</v>
+        <v>1.575699045392223</v>
       </c>
       <c r="J127">
-        <v>1.575699045392223</v>
+        <v>1.516721999003159</v>
       </c>
       <c r="K127">
-        <v>1.570218755572446</v>
+        <v>383.6392500000075</v>
       </c>
       <c r="L127">
-        <v>383.6392500000075</v>
-      </c>
-      <c r="M127">
         <v>604.5</v>
       </c>
     </row>

--- a/All Teraco Data/Operations DB1/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations DB1/Outputs/Data Analysis Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
   <si>
     <t>Total Incoming</t>
   </si>
@@ -483,7 +483,7 @@
         <v>44926</v>
       </c>
       <c r="B3">
-        <v>962865.8589999999</v>
+        <v>1332596.472</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>957886</v>
+        <v>1311278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4979.858999999997</v>
+        <v>21318.47199999998</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30.47493981194314</v>
+        <v>30.61730483104564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>62.29297595232322</v>
+        <v>62.21831435255361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.232084235733642</v>
+        <v>7.164380816400747</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3212,22 +3212,22 @@
         <v>190.078869047619</v>
       </c>
       <c r="E63">
-        <v>181.811394568756</v>
+        <v>185.2952572260893</v>
       </c>
       <c r="F63">
-        <v>8.267474478863022</v>
+        <v>4.783611821529718</v>
       </c>
       <c r="G63">
-        <v>28.07432099838474</v>
+        <v>24.59045834105143</v>
       </c>
       <c r="H63">
-        <v>1.045472807127809</v>
+        <v>1.025816158994793</v>
       </c>
       <c r="I63">
         <v>1.613921658484486</v>
       </c>
       <c r="J63">
-        <v>1.59242886934804</v>
+        <v>1.601485797877525</v>
       </c>
       <c r="K63">
         <v>384.6627083333275</v>
@@ -3250,171 +3250,171 @@
         <v>22</v>
       </c>
       <c r="D64">
-        <v>182.6049999999814</v>
+        <v>197.1086904762002</v>
       </c>
       <c r="E64">
-        <v>159.9790901560654</v>
+        <v>185.251300880667</v>
       </c>
       <c r="F64">
-        <v>22.62590984391593</v>
+        <v>11.85738959553322</v>
       </c>
       <c r="G64">
-        <v>50.70023084230067</v>
+        <v>36.44784793658465</v>
       </c>
       <c r="H64">
-        <v>1.14143041957448</v>
+        <v>1.064007051713884</v>
       </c>
       <c r="I64">
-        <v>1.575699045392223</v>
+        <v>1.625865329993205</v>
       </c>
       <c r="J64">
-        <v>1.516721999003159</v>
+        <v>1.595175665906781</v>
       </c>
       <c r="K64">
-        <v>383.6392500000075</v>
+        <v>386.3642678571466</v>
       </c>
       <c r="L64">
-        <v>604.5</v>
+        <v>628.1762678571429</v>
+      </c>
+      <c r="M64">
+        <v>43.3</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>44199</v>
+        <v>44640</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>134.2059718309705</v>
+        <v>193.7589999999895</v>
       </c>
       <c r="E65">
-        <v>154.6295022703841</v>
+        <v>177.3863615043983</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>16.37263849559127</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>52.82048643217593</v>
       </c>
       <c r="H65">
-        <v>0.8679195745990232</v>
+        <v>1.092299308451542</v>
       </c>
       <c r="I65">
-        <v>1.557589502491472</v>
+        <v>1.610143771924244</v>
       </c>
       <c r="J65">
-        <v>1.622575794915018</v>
+        <v>1.567829084876882</v>
       </c>
       <c r="K65">
-        <v>314.2744366197099</v>
+        <v>386.9256666666618</v>
       </c>
       <c r="L65">
-        <v>489.5105633802817</v>
+        <v>623.0059523809524</v>
       </c>
       <c r="M65">
-        <v>39.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>44206</v>
+        <v>44647</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>140.0087321428582</v>
+        <v>185.9311845238165</v>
       </c>
       <c r="E66">
-        <v>158.1917127966816</v>
+        <v>176.4547806342112</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>9.476403889605308</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>62.29689032178123</v>
       </c>
       <c r="H66">
-        <v>0.8850573122171492</v>
+        <v>1.053704432691171</v>
       </c>
       <c r="I66">
-        <v>1.572346885360321</v>
+        <v>1.588890099230065</v>
       </c>
       <c r="J66">
-        <v>1.62920241028032</v>
+        <v>1.564450753840787</v>
       </c>
       <c r="K66">
-        <v>319.8102678571428</v>
+        <v>387.7519523809564</v>
       </c>
       <c r="L66">
-        <v>502.8526785714286</v>
+        <v>616.0952380952381</v>
       </c>
       <c r="M66">
-        <v>41.4</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>44213</v>
+        <v>44654</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>144.4008035714284</v>
+        <v>199.28085416666</v>
       </c>
       <c r="E67">
-        <v>161.2506918173763</v>
+        <v>162.1769312969526</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>37.10392286970742</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>99.40081319148865</v>
       </c>
       <c r="H67">
-        <v>0.8955050173364142</v>
+        <v>1.228786687311086</v>
       </c>
       <c r="I67">
-        <v>1.495412542330898</v>
+        <v>1.630198047474724</v>
       </c>
       <c r="J67">
-        <v>1.548066889717883</v>
+        <v>1.53479309066739</v>
       </c>
       <c r="K67">
-        <v>320.0094404761912</v>
+        <v>388.9098020833238</v>
       </c>
       <c r="L67">
-        <v>478.546130952381</v>
-      </c>
-      <c r="M67">
-        <v>47.6</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68" s="3">
-        <v>44220</v>
+        <v>44199</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
       </c>
       <c r="D68">
-        <v>142.9466011904768</v>
+        <v>134.2059718309705</v>
       </c>
       <c r="E68">
-        <v>159.6537506558605</v>
+        <v>154.6295022703841</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3423,39 +3423,39 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.8953538554731694</v>
+        <v>0.8679195745990232</v>
       </c>
       <c r="I68">
-        <v>1.582180327263746</v>
+        <v>1.557589502491472</v>
       </c>
       <c r="J68">
-        <v>1.634341731812601</v>
+        <v>1.622575794915018</v>
       </c>
       <c r="K68">
-        <v>320.2971547619063</v>
+        <v>314.2744366197099</v>
       </c>
       <c r="L68">
-        <v>506.7678571428572</v>
+        <v>489.5105633802817</v>
       </c>
       <c r="M68">
-        <v>45.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>44227</v>
+        <v>44206</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
       </c>
       <c r="D69">
-        <v>140.7582857142912</v>
+        <v>140.0087321428582</v>
       </c>
       <c r="E69">
-        <v>156.2508330880756</v>
+        <v>158.1917127966816</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3464,39 +3464,39 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.9008482254616106</v>
+        <v>0.8850573122171492</v>
       </c>
       <c r="I69">
-        <v>1.577623562626929</v>
+        <v>1.572346885360321</v>
       </c>
       <c r="J69">
-        <v>1.625842648218127</v>
+        <v>1.62920241028032</v>
       </c>
       <c r="K69">
-        <v>321.2949226190491</v>
+        <v>319.8102678571428</v>
       </c>
       <c r="L69">
-        <v>506.8824404761905</v>
+        <v>502.8526785714286</v>
       </c>
       <c r="M69">
-        <v>37.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B70" s="3">
-        <v>44234</v>
+        <v>44213</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
       </c>
       <c r="D70">
-        <v>139.5269047619021</v>
+        <v>144.4008035714284</v>
       </c>
       <c r="E70">
-        <v>158.8133813987119</v>
+        <v>161.2506918173763</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3505,39 +3505,39 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.8785588691144999</v>
+        <v>0.8955050173364142</v>
       </c>
       <c r="I70">
-        <v>1.499982204354249</v>
+        <v>1.495412542330898</v>
       </c>
       <c r="J70">
-        <v>1.559982382773357</v>
+        <v>1.548066889717883</v>
       </c>
       <c r="K70">
-        <v>321.4403214285682</v>
+        <v>320.0094404761912</v>
       </c>
       <c r="L70">
-        <v>482.1547619047619</v>
+        <v>478.546130952381</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>44241</v>
+        <v>44220</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
       </c>
       <c r="D71">
-        <v>147.3453333333323</v>
+        <v>142.9466011904768</v>
       </c>
       <c r="E71">
-        <v>162.368476112245</v>
+        <v>159.6537506558605</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3546,39 +3546,39 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.907475002915423</v>
+        <v>0.8953538554731694</v>
       </c>
       <c r="I71">
-        <v>1.593994328535834</v>
+        <v>1.582180327263746</v>
       </c>
       <c r="J71">
-        <v>1.640668843431421</v>
+        <v>1.634341731812601</v>
       </c>
       <c r="K71">
-        <v>321.8703571428556</v>
+        <v>320.2971547619063</v>
       </c>
       <c r="L71">
-        <v>513.0595238095239</v>
+        <v>506.7678571428572</v>
       </c>
       <c r="M71">
-        <v>49.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3">
-        <v>44248</v>
+        <v>44227</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
       </c>
       <c r="D72">
-        <v>145.3112023809559</v>
+        <v>140.7582857142912</v>
       </c>
       <c r="E72">
-        <v>157.4694775649883</v>
+        <v>156.2508330880756</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3587,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.9227896391602962</v>
+        <v>0.9008482254616106</v>
       </c>
       <c r="I72">
-        <v>1.593291214306311</v>
+        <v>1.577623562626929</v>
       </c>
       <c r="J72">
-        <v>1.630825206214054</v>
+        <v>1.625842648218127</v>
       </c>
       <c r="K72">
-        <v>323.9270476190529</v>
+        <v>321.2949226190491</v>
       </c>
       <c r="L72">
-        <v>516.110119047619</v>
+        <v>506.8824404761905</v>
       </c>
       <c r="M72">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3">
-        <v>44255</v>
+        <v>44234</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
       </c>
       <c r="D73">
-        <v>144.4887559523784</v>
+        <v>139.5269047619021</v>
       </c>
       <c r="E73">
-        <v>156.9040522203854</v>
+        <v>158.8133813987119</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3628,39 +3628,39 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.9208733229491823</v>
+        <v>0.8785588691144999</v>
       </c>
       <c r="I73">
-        <v>1.591420056288376</v>
+        <v>1.499982204354249</v>
       </c>
       <c r="J73">
-        <v>1.629557999065331</v>
+        <v>1.559982382773357</v>
       </c>
       <c r="K73">
-        <v>325.5366011904719</v>
+        <v>321.4403214285682</v>
       </c>
       <c r="L73">
-        <v>518.0654761904761</v>
+        <v>482.1547619047619</v>
       </c>
       <c r="M73">
-        <v>36.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>44262</v>
+        <v>44241</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
       </c>
       <c r="D74">
-        <v>144.8991190476143</v>
+        <v>147.3453333333323</v>
       </c>
       <c r="E74">
-        <v>157.7356201769991</v>
+        <v>162.368476112245</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3669,39 +3669,39 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0.918620149874958</v>
+        <v>0.907475002915423</v>
       </c>
       <c r="I74">
-        <v>1.585400082593668</v>
+        <v>1.593994328535834</v>
       </c>
       <c r="J74">
-        <v>1.624620555810425</v>
+        <v>1.640668843431421</v>
       </c>
       <c r="K74">
-        <v>327.2908273809534</v>
+        <v>321.8703571428556</v>
       </c>
       <c r="L74">
-        <v>518.8869047619048</v>
+        <v>513.0595238095239</v>
       </c>
       <c r="M74">
-        <v>34.7</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3">
-        <v>44269</v>
+        <v>44248</v>
       </c>
       <c r="C75" t="s">
         <v>23</v>
       </c>
       <c r="D75">
-        <v>150.2623095238093</v>
+        <v>145.3112023809559</v>
       </c>
       <c r="E75">
-        <v>947.880581257889</v>
+        <v>157.4694775649883</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3710,39 +3710,39 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.158524515107592</v>
+        <v>0.9227896391602962</v>
       </c>
       <c r="I75">
-        <v>0.2211518480156466</v>
+        <v>1.593291214306311</v>
       </c>
       <c r="J75">
-        <v>0.5821255774800674</v>
+        <v>1.630825206214054</v>
       </c>
       <c r="K75">
-        <v>2209.629694985043</v>
+        <v>323.9270476190529</v>
       </c>
       <c r="L75">
-        <v>488.6636904761905</v>
+        <v>516.110119047619</v>
       </c>
       <c r="M75">
-        <v>45.4</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3">
-        <v>44276</v>
+        <v>44255</v>
       </c>
       <c r="C76" t="s">
         <v>23</v>
       </c>
       <c r="D76">
-        <v>152.0430000000023</v>
+        <v>144.4887559523784</v>
       </c>
       <c r="E76">
-        <v>2518.536252145573</v>
+        <v>156.9040522203854</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3751,39 +3751,39 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.06036958962590869</v>
+        <v>0.9208733229491823</v>
       </c>
       <c r="I76">
-        <v>0.08316071538262837</v>
+        <v>1.591420056288376</v>
       </c>
       <c r="J76">
-        <v>0.4786756228728111</v>
+        <v>1.629557999065331</v>
       </c>
       <c r="K76">
-        <v>5983.322517885898</v>
+        <v>325.5366011904719</v>
       </c>
       <c r="L76">
-        <v>497.577380952381</v>
+        <v>518.0654761904761</v>
       </c>
       <c r="M76">
-        <v>42.6</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" s="3">
-        <v>44283</v>
+        <v>44262</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
       </c>
       <c r="D77">
-        <v>141.0593869047672</v>
+        <v>144.8991190476143</v>
       </c>
       <c r="E77">
-        <v>2505.677077193588</v>
+        <v>157.7356201769991</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3792,39 +3792,39 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.05629591625699698</v>
+        <v>0.918620149874958</v>
       </c>
       <c r="I77">
-        <v>0.08560584577700275</v>
+        <v>1.585400082593668</v>
       </c>
       <c r="J77">
-        <v>0.481369956044975</v>
+        <v>1.624620555810425</v>
       </c>
       <c r="K77">
-        <v>5974.815878801474</v>
+        <v>327.2908273809534</v>
       </c>
       <c r="L77">
-        <v>511.4791666666667</v>
+        <v>518.8869047619048</v>
       </c>
       <c r="M77">
-        <v>23.1</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3">
-        <v>44290</v>
+        <v>44269</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78">
-        <v>156.4540059523757</v>
+        <v>150.2623095238093</v>
       </c>
       <c r="E78">
-        <v>2498.594875371729</v>
+        <v>947.880581257889</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3833,39 +3833,39 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.06261679614191124</v>
+        <v>0.158524515107592</v>
       </c>
       <c r="I78">
-        <v>0.08992120805352749</v>
+        <v>0.2211518480156466</v>
       </c>
       <c r="J78">
-        <v>0.4835812761090927</v>
+        <v>0.5821255774800674</v>
       </c>
       <c r="K78">
-        <v>5949.653163929142</v>
+        <v>2209.629694985043</v>
       </c>
       <c r="L78">
-        <v>535</v>
+        <v>488.6636904761905</v>
       </c>
       <c r="M78">
-        <v>30.3</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" s="3">
-        <v>44297</v>
+        <v>44276</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
       </c>
       <c r="D79">
-        <v>158.7145476190518</v>
+        <v>152.0430000000023</v>
       </c>
       <c r="E79">
-        <v>2501.366705243571</v>
+        <v>2518.536252145573</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3874,39 +3874,39 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0.06345113144999541</v>
+        <v>0.06036958962590869</v>
       </c>
       <c r="I79">
-        <v>0.09059327195653993</v>
+        <v>0.08316071538262837</v>
       </c>
       <c r="J79">
-        <v>0.4836870519675929</v>
+        <v>0.4786756228728111</v>
       </c>
       <c r="K79">
-        <v>5959.52486848977</v>
+        <v>5983.322517885898</v>
       </c>
       <c r="L79">
-        <v>539.8928571428571</v>
+        <v>497.577380952381</v>
       </c>
       <c r="M79">
-        <v>27.3</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B80" s="3">
-        <v>44304</v>
+        <v>44283</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
       </c>
       <c r="D80">
-        <v>156.8428750000007</v>
+        <v>141.0593869047672</v>
       </c>
       <c r="E80">
-        <v>734.8431290413783</v>
+        <v>2505.677077193588</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3915,39 +3915,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.2134372205461134</v>
+        <v>0.05629591625699698</v>
       </c>
       <c r="I80">
-        <v>0.8809602459572561</v>
+        <v>0.08560584577700275</v>
       </c>
       <c r="J80">
-        <v>1.216479171086076</v>
+        <v>0.481369956044975</v>
       </c>
       <c r="K80">
-        <v>1722.705369956287</v>
+        <v>5974.815878801474</v>
       </c>
       <c r="L80">
-        <v>1517.634946428572</v>
+        <v>511.4791666666667</v>
       </c>
       <c r="M80">
-        <v>29.5</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" s="3">
-        <v>44311</v>
+        <v>44290</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
       </c>
       <c r="D81">
-        <v>156.0972083333292</v>
+        <v>156.4540059523757</v>
       </c>
       <c r="E81">
-        <v>150.7338867132495</v>
+        <v>2498.594875371729</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3956,39 +3956,39 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1.0355813927248</v>
+        <v>0.06261679614191124</v>
       </c>
       <c r="I81">
-        <v>1.587780193108647</v>
+        <v>0.08992120805352749</v>
       </c>
       <c r="J81">
-        <v>1.571770199879942</v>
+        <v>0.4835812761090927</v>
       </c>
       <c r="K81">
-        <v>334.9983690476233</v>
+        <v>5949.653163929142</v>
       </c>
       <c r="L81">
-        <v>531.9037750975085</v>
+        <v>535</v>
       </c>
       <c r="M81">
-        <v>18.7</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82" s="3">
-        <v>44318</v>
+        <v>44297</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
       </c>
       <c r="D82">
-        <v>153.5751964285737</v>
+        <v>158.7145476190518</v>
       </c>
       <c r="E82">
-        <v>152.6345617785694</v>
+        <v>2501.366705243571</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3997,39 +3997,39 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1.006162658306504</v>
+        <v>0.06345113144999541</v>
       </c>
       <c r="I82">
-        <v>1.570878098096148</v>
+        <v>0.09059327195653993</v>
       </c>
       <c r="J82">
-        <v>1.568110925363815</v>
+        <v>0.4836870519675929</v>
       </c>
       <c r="K82">
-        <v>339.926250000002</v>
+        <v>5959.52486848977</v>
       </c>
       <c r="L82">
-        <v>533.9827010929678</v>
+        <v>539.8928571428571</v>
       </c>
       <c r="M82">
-        <v>19.3</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B83" s="3">
-        <v>44325</v>
+        <v>44304</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
       </c>
       <c r="D83">
-        <v>152.6765714285651</v>
+        <v>156.8428750000007</v>
       </c>
       <c r="E83">
-        <v>150.6232778977588</v>
+        <v>734.8431290413783</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4038,39 +4038,39 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1.013631980125941</v>
+        <v>0.2134372205461134</v>
       </c>
       <c r="I83">
-        <v>1.558810470238923</v>
+        <v>0.8809602459572561</v>
       </c>
       <c r="J83">
-        <v>1.552784212443288</v>
+        <v>1.216479171086076</v>
       </c>
       <c r="K83">
-        <v>340.7244761904724</v>
+        <v>1722.705369956287</v>
       </c>
       <c r="L83">
-        <v>531.124880952381</v>
+        <v>1517.634946428572</v>
       </c>
       <c r="M83">
-        <v>13.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B84" s="3">
-        <v>44332</v>
+        <v>44311</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
       </c>
       <c r="D84">
-        <v>157.3976964285775</v>
+        <v>156.0972083333292</v>
       </c>
       <c r="E84">
-        <v>154.2539879165841</v>
+        <v>150.7338867132495</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4079,39 +4079,39 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1.020380079338328</v>
+        <v>1.0355813927248</v>
       </c>
       <c r="I84">
-        <v>1.570803371983793</v>
+        <v>1.587780193108647</v>
       </c>
       <c r="J84">
-        <v>1.561632169622951</v>
+        <v>1.571770199879942</v>
       </c>
       <c r="K84">
-        <v>342.7804107142867</v>
+        <v>334.9983690476233</v>
       </c>
       <c r="L84">
-        <v>538.4406250000001</v>
+        <v>531.9037750975085</v>
       </c>
       <c r="M84">
-        <v>20.4</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B85" s="3">
-        <v>44339</v>
+        <v>44318</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
       </c>
       <c r="D85">
-        <v>150.4058869047634</v>
+        <v>153.5751964285737</v>
       </c>
       <c r="E85">
-        <v>149.8152226645259</v>
+        <v>152.6345617785694</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4120,39 +4120,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1.003942618311626</v>
+        <v>1.006162658306504</v>
       </c>
       <c r="I85">
-        <v>1.560848303349736</v>
+        <v>1.570878098096148</v>
       </c>
       <c r="J85">
-        <v>1.559123387974313</v>
+        <v>1.568110925363815</v>
       </c>
       <c r="K85">
-        <v>342.4308511904729</v>
+        <v>339.926250000002</v>
       </c>
       <c r="L85">
-        <v>534.4826130952381</v>
+        <v>533.9827010929678</v>
       </c>
       <c r="M85">
-        <v>12</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86" s="3">
-        <v>44346</v>
+        <v>44325</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
       </c>
       <c r="D86">
-        <v>150.0719345238093</v>
+        <v>152.6765714285651</v>
       </c>
       <c r="E86">
-        <v>148.9184643458958</v>
+        <v>150.6232778977588</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4161,39 +4161,39 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1.007745649157611</v>
+        <v>1.013631980125941</v>
       </c>
       <c r="I86">
-        <v>1.547534877460135</v>
+        <v>1.558810470238923</v>
       </c>
       <c r="J86">
-        <v>1.544166545805853</v>
+        <v>1.552784212443288</v>
       </c>
       <c r="K86">
-        <v>342.4455476190529</v>
+        <v>340.7244761904724</v>
       </c>
       <c r="L86">
-        <v>529.9464285714286</v>
+        <v>531.124880952381</v>
       </c>
       <c r="M86">
-        <v>11.6</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B87" s="3">
-        <v>44353</v>
+        <v>44332</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
       </c>
       <c r="D87">
-        <v>152.2536964285675</v>
+        <v>157.3976964285775</v>
       </c>
       <c r="E87">
-        <v>145.6629314091923</v>
+        <v>154.2539879165841</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4202,39 +4202,39 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1.045246686686956</v>
+        <v>1.020380079338328</v>
       </c>
       <c r="I87">
-        <v>1.559609421173874</v>
+        <v>1.570803371983793</v>
       </c>
       <c r="J87">
-        <v>1.540464493763287</v>
+        <v>1.561632169622951</v>
       </c>
       <c r="K87">
-        <v>344.256464285715</v>
+        <v>342.7804107142867</v>
       </c>
       <c r="L87">
-        <v>536.905625</v>
+        <v>538.4406250000001</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3">
-        <v>44360</v>
+        <v>44339</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88">
-        <v>157.0354821428634</v>
+        <v>150.4058869047634</v>
       </c>
       <c r="E88">
-        <v>151.1502679938704</v>
+        <v>149.8152226645259</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4243,39 +4243,39 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1.038936180710125</v>
+        <v>1.003942618311626</v>
       </c>
       <c r="I88">
-        <v>1.569419507488795</v>
+        <v>1.560848303349736</v>
       </c>
       <c r="J88">
-        <v>1.55264447743385</v>
+        <v>1.559123387974313</v>
       </c>
       <c r="K88">
-        <v>350.8318095238092</v>
+        <v>342.4308511904729</v>
       </c>
       <c r="L88">
-        <v>550.6022857142857</v>
+        <v>534.4826130952381</v>
       </c>
       <c r="M88">
-        <v>7.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3">
-        <v>44367</v>
+        <v>44346</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89">
-        <v>151.8791547618984</v>
+        <v>150.0719345238093</v>
       </c>
       <c r="E89">
-        <v>151.3772036866484</v>
+        <v>148.9184643458958</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4284,39 +4284,39 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1.003315896073025</v>
+        <v>1.007745649157611</v>
       </c>
       <c r="I89">
-        <v>1.548852670984837</v>
+        <v>1.547534877460135</v>
       </c>
       <c r="J89">
-        <v>1.547412523362798</v>
+        <v>1.544166545805853</v>
       </c>
       <c r="K89">
-        <v>348.5414047619062</v>
+        <v>342.4455476190529</v>
       </c>
       <c r="L89">
-        <v>539.8392857142857</v>
+        <v>529.9464285714286</v>
       </c>
       <c r="M89">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" s="3">
-        <v>44374</v>
+        <v>44353</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
       </c>
       <c r="D90">
-        <v>148.30996428572</v>
+        <v>152.2536964285675</v>
       </c>
       <c r="E90">
-        <v>150.0558700498584</v>
+        <v>145.6629314091923</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4325,39 +4325,39 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.9883649619067998</v>
+        <v>1.045246686686956</v>
       </c>
       <c r="I90">
-        <v>1.535492302740842</v>
+        <v>1.559609421173874</v>
       </c>
       <c r="J90">
-        <v>1.540533026392636</v>
+        <v>1.540464493763287</v>
       </c>
       <c r="K90">
-        <v>346.3601428571412</v>
+        <v>344.256464285715</v>
       </c>
       <c r="L90">
-        <v>531.8333333333334</v>
+        <v>536.905625</v>
       </c>
       <c r="M90">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3">
-        <v>44381</v>
+        <v>44360</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
       </c>
       <c r="D91">
-        <v>158.1438511904728</v>
+        <v>157.0354821428634</v>
       </c>
       <c r="E91">
-        <v>152.5077765011403</v>
+        <v>151.1502679938704</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4366,39 +4366,39 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1.036955982302255</v>
+        <v>1.038936180710125</v>
       </c>
       <c r="I91">
-        <v>1.56272533373313</v>
+        <v>1.569419507488795</v>
       </c>
       <c r="J91">
-        <v>1.546492552225222</v>
+        <v>1.55264447743385</v>
       </c>
       <c r="K91">
-        <v>347.2032619047566</v>
+        <v>350.8318095238092</v>
       </c>
       <c r="L91">
-        <v>542.5833333333334</v>
+        <v>550.6022857142857</v>
       </c>
       <c r="M91">
-        <v>14.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92" s="3">
-        <v>44388</v>
+        <v>44367</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
       </c>
       <c r="D92">
-        <v>144.3952142857126</v>
+        <v>151.8791547618984</v>
       </c>
       <c r="E92">
-        <v>147.5998250432984</v>
+        <v>151.3772036866484</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4407,39 +4407,39 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.9782885192672436</v>
+        <v>1.003315896073025</v>
       </c>
       <c r="I92">
-        <v>1.525146884594245</v>
+        <v>1.548852670984837</v>
       </c>
       <c r="J92">
-        <v>1.534388991885071</v>
+        <v>1.547412523362798</v>
       </c>
       <c r="K92">
-        <v>346.7402678571442</v>
+        <v>348.5414047619062</v>
       </c>
       <c r="L92">
-        <v>528.8298392857143</v>
+        <v>539.8392857142857</v>
       </c>
       <c r="M92">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B93" s="3">
-        <v>44395</v>
+        <v>44374</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
       </c>
       <c r="D93">
-        <v>145.9704999999986</v>
+        <v>148.30996428572</v>
       </c>
       <c r="E93">
-        <v>147.1306517031884</v>
+        <v>150.0558700498584</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4448,39 +4448,39 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.9921148197893515</v>
+        <v>0.9883649619067998</v>
       </c>
       <c r="I93">
-        <v>1.530192496413252</v>
+        <v>1.535492302740842</v>
       </c>
       <c r="J93">
-        <v>1.533538840451344</v>
+        <v>1.540533026392636</v>
       </c>
       <c r="K93">
-        <v>346.6922976190468</v>
+        <v>346.3601428571412</v>
       </c>
       <c r="L93">
-        <v>530.5059523809524</v>
+        <v>531.8333333333334</v>
       </c>
       <c r="M93">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94" s="3">
-        <v>44402</v>
+        <v>44381</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
       </c>
       <c r="D94">
-        <v>137.1910416666707</v>
+        <v>158.1438511904728</v>
       </c>
       <c r="E94">
-        <v>146.5751301568946</v>
+        <v>152.5077765011403</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4489,39 +4489,39 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.9359776213046564</v>
+        <v>1.036955982302255</v>
       </c>
       <c r="I94">
-        <v>1.508090070702715</v>
+        <v>1.56272533373313</v>
       </c>
       <c r="J94">
-        <v>1.535146361680138</v>
+        <v>1.546492552225222</v>
       </c>
       <c r="K94">
-        <v>346.8357321428567</v>
+        <v>347.2032619047566</v>
       </c>
       <c r="L94">
-        <v>523.0595238095239</v>
+        <v>542.5833333333334</v>
       </c>
       <c r="M94">
-        <v>2.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B95" s="3">
-        <v>44409</v>
+        <v>44388</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
       </c>
       <c r="D95">
-        <v>148.550464285715</v>
+        <v>144.3952142857126</v>
       </c>
       <c r="E95">
-        <v>149.5998146687054</v>
+        <v>147.5998250432984</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4530,39 +4530,39 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.9929856170924126</v>
+        <v>0.9782885192672436</v>
       </c>
       <c r="I95">
-        <v>1.543056571904535</v>
+        <v>1.525146884594245</v>
       </c>
       <c r="J95">
-        <v>1.546062060544356</v>
+        <v>1.534388991885071</v>
       </c>
       <c r="K95">
-        <v>349.1446845238097</v>
+        <v>346.7402678571442</v>
       </c>
       <c r="L95">
-        <v>538.75</v>
+        <v>528.8298392857143</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3">
-        <v>44416</v>
+        <v>44395</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
       </c>
       <c r="D96">
-        <v>148.1289345238058</v>
+        <v>145.9704999999986</v>
       </c>
       <c r="E96">
-        <v>151.1467922160408</v>
+        <v>147.1306517031884</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4571,39 +4571,39 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.9800335974850102</v>
+        <v>0.9921148197893515</v>
       </c>
       <c r="I96">
-        <v>1.543234943406895</v>
+        <v>1.530192496413252</v>
       </c>
       <c r="J96">
-        <v>1.55184034428612</v>
+        <v>1.533538840451344</v>
       </c>
       <c r="K96">
-        <v>350.6934464285704</v>
+        <v>346.6922976190468</v>
       </c>
       <c r="L96">
-        <v>541.202380952381</v>
+        <v>530.5059523809524</v>
       </c>
       <c r="M96">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B97" s="3">
-        <v>44423</v>
+        <v>44402</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
       </c>
       <c r="D97">
-        <v>148.7178750000007</v>
+        <v>137.1910416666707</v>
       </c>
       <c r="E97">
-        <v>150.0896963079265</v>
+        <v>146.5751301568946</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4612,39 +4612,39 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.9908599901147686</v>
+        <v>0.9359776213046564</v>
       </c>
       <c r="I97">
-        <v>1.551949716378851</v>
+        <v>1.508090070702715</v>
       </c>
       <c r="J97">
-        <v>1.55584716173332</v>
+        <v>1.535146361680138</v>
       </c>
       <c r="K97">
-        <v>351.9796130952392</v>
+        <v>346.8357321428567</v>
       </c>
       <c r="L97">
-        <v>546.2546607142857</v>
+        <v>523.0595238095239</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B98" s="3">
-        <v>44430</v>
+        <v>44409</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
       </c>
       <c r="D98">
-        <v>149.8686607142833</v>
+        <v>148.550464285715</v>
       </c>
       <c r="E98">
-        <v>151.7328174491492</v>
+        <v>149.5998146687054</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4653,19 +4653,19 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0.9877142152488488</v>
+        <v>0.9929856170924126</v>
       </c>
       <c r="I98">
-        <v>1.545537786875197</v>
+        <v>1.543056571904535</v>
       </c>
       <c r="J98">
-        <v>1.550819466275676</v>
+        <v>1.546062060544356</v>
       </c>
       <c r="K98">
-        <v>352.9477261904782</v>
+        <v>349.1446845238097</v>
       </c>
       <c r="L98">
-        <v>545.4940476190476</v>
+        <v>538.75</v>
       </c>
       <c r="M98">
         <v>6.5</v>
@@ -4673,19 +4673,19 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B99" s="3">
-        <v>44437</v>
+        <v>44416</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99">
-        <v>153.2249880952406</v>
+        <v>148.1289345238058</v>
       </c>
       <c r="E99">
-        <v>155.9768625214436</v>
+        <v>151.1467922160408</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4694,39 +4694,39 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0.9823571625834909</v>
+        <v>0.9800335974850102</v>
       </c>
       <c r="I99">
-        <v>1.548289623279574</v>
+        <v>1.543234943406895</v>
       </c>
       <c r="J99">
-        <v>1.556088679369513</v>
+        <v>1.55184034428612</v>
       </c>
       <c r="K99">
-        <v>352.847113095235</v>
+        <v>350.6934464285704</v>
       </c>
       <c r="L99">
-        <v>546.3095238095239</v>
+        <v>541.202380952381</v>
       </c>
       <c r="M99">
-        <v>15.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B100" s="3">
-        <v>44444</v>
+        <v>44423</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
       </c>
       <c r="D100">
-        <v>154.2299345238079</v>
+        <v>148.7178750000007</v>
       </c>
       <c r="E100">
-        <v>154.96937297445</v>
+        <v>150.0896963079265</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4735,39 +4735,39 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.9952284865296315</v>
+        <v>0.9908599901147686</v>
       </c>
       <c r="I100">
-        <v>1.541009956893704</v>
+        <v>1.551949716378851</v>
       </c>
       <c r="J100">
-        <v>1.5430874983344</v>
+        <v>1.55584716173332</v>
       </c>
       <c r="K100">
-        <v>355.9199523809532</v>
+        <v>351.9796130952392</v>
       </c>
       <c r="L100">
-        <v>548.4761904761905</v>
+        <v>546.2546607142857</v>
       </c>
       <c r="M100">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B101" s="3">
-        <v>44451</v>
+        <v>44430</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
       </c>
       <c r="D101">
-        <v>150.5623452380976</v>
+        <v>149.8686607142833</v>
       </c>
       <c r="E101">
-        <v>153.8068462561213</v>
+        <v>151.7328174491492</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4776,39 +4776,39 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0.9789053537147435</v>
+        <v>0.9877142152488488</v>
       </c>
       <c r="I101">
-        <v>1.531794692153567</v>
+        <v>1.545537786875197</v>
       </c>
       <c r="J101">
-        <v>1.540912275430181</v>
+        <v>1.550819466275676</v>
       </c>
       <c r="K101">
-        <v>355.8509880952437</v>
+        <v>352.9477261904782</v>
       </c>
       <c r="L101">
-        <v>545.0906547619048</v>
+        <v>545.4940476190476</v>
       </c>
       <c r="M101">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B102" s="3">
-        <v>44458</v>
+        <v>44437</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
       </c>
       <c r="D102">
-        <v>158.337166666663</v>
+        <v>153.2249880952406</v>
       </c>
       <c r="E102">
-        <v>154.8723022349019</v>
+        <v>155.9768625214436</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4817,39 +4817,39 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1.02237239572061</v>
+        <v>0.9823571625834909</v>
       </c>
       <c r="I102">
-        <v>1.551825866658735</v>
+        <v>1.548289623279574</v>
       </c>
       <c r="J102">
-        <v>1.542091360166521</v>
+        <v>1.556088679369513</v>
       </c>
       <c r="K102">
-        <v>355.9363214285667</v>
+        <v>352.847113095235</v>
       </c>
       <c r="L102">
-        <v>552.3511904761905</v>
+        <v>546.3095238095239</v>
       </c>
       <c r="M102">
-        <v>11.2</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B103" s="3">
-        <v>44465</v>
+        <v>44444</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
       </c>
       <c r="D103">
-        <v>155.2170833333373</v>
+        <v>154.2299345238079</v>
       </c>
       <c r="E103">
-        <v>155.1062633025237</v>
+        <v>154.96937297445</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4858,39 +4858,39 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1.00071447811619</v>
+        <v>0.9952284865296315</v>
       </c>
       <c r="I103">
-        <v>1.541391284642335</v>
+        <v>1.541009956893704</v>
       </c>
       <c r="J103">
-        <v>1.541081335502792</v>
+        <v>1.5430874983344</v>
       </c>
       <c r="K103">
-        <v>357.5426309523783</v>
+        <v>355.9199523809532</v>
       </c>
       <c r="L103">
-        <v>551.1130952380952</v>
+        <v>548.4761904761905</v>
       </c>
       <c r="M103">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3">
-        <v>44472</v>
+        <v>44451</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104">
-        <v>150.4812380952339</v>
+        <v>150.5623452380976</v>
       </c>
       <c r="E104">
-        <v>158.2787981330455</v>
+        <v>153.8068462561213</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4899,39 +4899,39 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0.9507352840065342</v>
+        <v>0.9789053537147435</v>
       </c>
       <c r="I104">
-        <v>1.524838044019881</v>
+        <v>1.531794692153567</v>
       </c>
       <c r="J104">
-        <v>1.546492345788618</v>
+        <v>1.540912275430181</v>
       </c>
       <c r="K104">
-        <v>360.0928869047646</v>
+        <v>355.8509880952437</v>
       </c>
       <c r="L104">
-        <v>549.0833333333334</v>
+        <v>545.0906547619048</v>
       </c>
       <c r="M104">
-        <v>14.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B105" s="3">
-        <v>44479</v>
+        <v>44458</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
       </c>
       <c r="D105">
-        <v>150.4646190476293</v>
+        <v>158.337166666663</v>
       </c>
       <c r="E105">
-        <v>155.9312647611605</v>
+        <v>154.8723022349019</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4940,39 +4940,39 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>0.9649419523281334</v>
+        <v>1.02237239572061</v>
       </c>
       <c r="I105">
-        <v>1.530703656965332</v>
+        <v>1.551825866658735</v>
       </c>
       <c r="J105">
-        <v>1.545841759963428</v>
+        <v>1.542091360166521</v>
       </c>
       <c r="K105">
-        <v>361.1182797619064</v>
+        <v>355.9363214285667</v>
       </c>
       <c r="L105">
-        <v>552.7650714285713</v>
+        <v>552.3511904761905</v>
       </c>
       <c r="M105">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B106" s="3">
-        <v>44486</v>
+        <v>44465</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
       </c>
       <c r="D106">
-        <v>154.9318988095259</v>
+        <v>155.2170833333373</v>
       </c>
       <c r="E106">
-        <v>161.2658054169062</v>
+        <v>155.1062633025237</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4981,39 +4981,39 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0.9607238088012162</v>
+        <v>1.00071447811619</v>
       </c>
       <c r="I106">
-        <v>1.558349824050244</v>
+        <v>1.541391284642335</v>
       </c>
       <c r="J106">
-        <v>1.57583734875986</v>
+        <v>1.541081335502792</v>
       </c>
       <c r="K106">
-        <v>362.19572023809</v>
+        <v>357.5426309523783</v>
       </c>
       <c r="L106">
-        <v>564.4276369047618</v>
+        <v>551.1130952380952</v>
       </c>
       <c r="M106">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B107" s="3">
-        <v>44493</v>
+        <v>44472</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
       </c>
       <c r="D107">
-        <v>160.2658154761884</v>
+        <v>150.4812380952339</v>
       </c>
       <c r="E107">
-        <v>157.5998220198986</v>
+        <v>158.2787981330455</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5022,39 +5022,39 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1.016916221237567</v>
+        <v>0.9507352840065342</v>
       </c>
       <c r="I107">
-        <v>1.562263884482379</v>
+        <v>1.524838044019881</v>
       </c>
       <c r="J107">
-        <v>1.554932809515883</v>
+        <v>1.546492345788618</v>
       </c>
       <c r="K107">
-        <v>363.656553571434</v>
+        <v>360.0928869047646</v>
       </c>
       <c r="L107">
-        <v>568.1274999999999</v>
+        <v>549.0833333333334</v>
       </c>
       <c r="M107">
-        <v>10.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B108" s="3">
-        <v>44500</v>
+        <v>44479</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
       </c>
       <c r="D108">
-        <v>166.2139940476156</v>
+        <v>150.4646190476293</v>
       </c>
       <c r="E108">
-        <v>157.8899805313582</v>
+        <v>155.9312647611605</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5063,39 +5063,39 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1.052720340380333</v>
+        <v>0.9649419523281334</v>
       </c>
       <c r="I108">
-        <v>1.579345157025566</v>
+        <v>1.530703656965332</v>
       </c>
       <c r="J108">
-        <v>1.556560900646736</v>
+        <v>1.545841759963428</v>
       </c>
       <c r="K108">
-        <v>365.3405833333354</v>
+        <v>361.1182797619064</v>
       </c>
       <c r="L108">
-        <v>576.998880952381</v>
+        <v>552.7650714285713</v>
       </c>
       <c r="M108">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B109" s="3">
-        <v>44507</v>
+        <v>44486</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
       </c>
       <c r="D109">
-        <v>167.3687499999956</v>
+        <v>154.9318988095259</v>
       </c>
       <c r="E109">
-        <v>164.4964293230406</v>
+        <v>161.2658054169062</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5104,39 +5104,39 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1.017461294988441</v>
+        <v>0.9607238088012162</v>
       </c>
       <c r="I109">
-        <v>1.577470453258754</v>
+        <v>1.558349824050244</v>
       </c>
       <c r="J109">
-        <v>1.569640210281676</v>
+        <v>1.57583734875986</v>
       </c>
       <c r="K109">
-        <v>366.8239523809503</v>
+        <v>362.19572023809</v>
       </c>
       <c r="L109">
-        <v>578.6539464285715</v>
+        <v>564.4276369047618</v>
       </c>
       <c r="M109">
-        <v>19.7</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B110" s="3">
-        <v>44514</v>
+        <v>44493</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
       </c>
       <c r="D110">
-        <v>167.1621369047623</v>
+        <v>160.2658154761884</v>
       </c>
       <c r="E110">
-        <v>163.8692706275791</v>
+        <v>157.5998220198986</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5145,39 +5145,39 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1.020094470821603</v>
+        <v>1.016916221237567</v>
       </c>
       <c r="I110">
-        <v>1.587933394553531</v>
+        <v>1.562263884482379</v>
       </c>
       <c r="J110">
-        <v>1.578943403081213</v>
+        <v>1.554932809515883</v>
       </c>
       <c r="K110">
-        <v>366.2813571428525</v>
+        <v>363.656553571434</v>
       </c>
       <c r="L110">
-        <v>581.6303988095236</v>
+        <v>568.1274999999999</v>
       </c>
       <c r="M110">
-        <v>19.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B111" s="3">
-        <v>44521</v>
+        <v>44500</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
       </c>
       <c r="D111">
-        <v>164.4951964285713</v>
+        <v>166.2139940476156</v>
       </c>
       <c r="E111">
-        <v>165.0337284204268</v>
+        <v>157.8899805313582</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5186,39 +5186,39 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.9967368367847597</v>
+        <v>1.052720340380333</v>
       </c>
       <c r="I111">
-        <v>1.573310721672806</v>
+        <v>1.579345157025566</v>
       </c>
       <c r="J111">
-        <v>1.574762832595814</v>
+        <v>1.556560900646736</v>
       </c>
       <c r="K111">
-        <v>370.8614702381061</v>
+        <v>365.3405833333354</v>
       </c>
       <c r="L111">
-        <v>583.4803273809524</v>
+        <v>576.998880952381</v>
       </c>
       <c r="M111">
-        <v>17.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B112" s="3">
-        <v>44528</v>
+        <v>44507</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
       </c>
       <c r="D112">
-        <v>173.2202976190463</v>
+        <v>167.3687499999956</v>
       </c>
       <c r="E112">
-        <v>166.2821394826832</v>
+        <v>164.4964293230406</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5227,39 +5227,39 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1.041725215696335</v>
+        <v>1.017461294988441</v>
       </c>
       <c r="I112">
-        <v>1.58316812519325</v>
+        <v>1.577470453258754</v>
       </c>
       <c r="J112">
-        <v>1.564573416394278</v>
+        <v>1.569640210281676</v>
       </c>
       <c r="K112">
-        <v>373.1253988095171</v>
+        <v>366.8239523809503</v>
       </c>
       <c r="L112">
-        <v>590.7202380952381</v>
+        <v>578.6539464285715</v>
       </c>
       <c r="M112">
-        <v>16.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B113" s="3">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
       </c>
       <c r="D113">
-        <v>175.1457976190528</v>
+        <v>167.1621369047623</v>
       </c>
       <c r="E113">
-        <v>175.3893679509762</v>
+        <v>163.8692706275791</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5268,39 +5268,39 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.9986112594237101</v>
+        <v>1.020094470821603</v>
       </c>
       <c r="I113">
-        <v>1.596230442639184</v>
+        <v>1.587933394553531</v>
       </c>
       <c r="J113">
-        <v>1.596879508498238</v>
+        <v>1.578943403081213</v>
       </c>
       <c r="K113">
-        <v>375.262892857144</v>
+        <v>366.2813571428525</v>
       </c>
       <c r="L113">
-        <v>599.0060535714285</v>
+        <v>581.6303988095236</v>
       </c>
       <c r="M113">
-        <v>30.7</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B114" s="3">
-        <v>44542</v>
+        <v>44521</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
       </c>
       <c r="D114">
-        <v>178.8955476190451</v>
+        <v>164.4951964285713</v>
       </c>
       <c r="E114">
-        <v>179.3276510694548</v>
+        <v>165.0337284204268</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5309,39 +5309,39 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0.9975904248573336</v>
+        <v>0.9967368367847597</v>
       </c>
       <c r="I114">
-        <v>1.607968930666337</v>
+        <v>1.573310721672806</v>
       </c>
       <c r="J114">
-        <v>1.609123372266538</v>
+        <v>1.574762832595814</v>
       </c>
       <c r="K114">
-        <v>374.296499999994</v>
+        <v>370.8614702381061</v>
       </c>
       <c r="L114">
-        <v>601.8571428571429</v>
+        <v>583.4803273809524</v>
       </c>
       <c r="M114">
-        <v>41.4</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B115" s="3">
-        <v>44549</v>
+        <v>44528</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
       </c>
       <c r="D115">
-        <v>172.564595238095</v>
+        <v>173.2202976190463</v>
       </c>
       <c r="E115">
-        <v>172.5371725861211</v>
+        <v>166.2821394826832</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5350,39 +5350,39 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>1.00015893764551</v>
+        <v>1.041725215696335</v>
       </c>
       <c r="I115">
-        <v>1.579236706502634</v>
+        <v>1.58316812519325</v>
       </c>
       <c r="J115">
-        <v>1.579163589419889</v>
+        <v>1.564573416394278</v>
       </c>
       <c r="K115">
-        <v>375.0512321428673</v>
+        <v>373.1253988095171</v>
       </c>
       <c r="L115">
-        <v>592.2946726190477</v>
+        <v>590.7202380952381</v>
       </c>
       <c r="M115">
-        <v>27.9</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B116" s="3">
-        <v>44556</v>
+        <v>44535</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
       </c>
       <c r="D116">
-        <v>170.0147678571465</v>
+        <v>175.1457976190528</v>
       </c>
       <c r="E116">
-        <v>171.4509159512136</v>
+        <v>175.3893679509762</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5391,470 +5391,716 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.9916235612618378</v>
+        <v>0.9986112594237101</v>
       </c>
       <c r="I116">
-        <v>1.560486156660549</v>
+        <v>1.596230442639184</v>
       </c>
       <c r="J116">
-        <v>1.564317780166184</v>
+        <v>1.596879508498238</v>
       </c>
       <c r="K116">
-        <v>374.8145119047591</v>
+        <v>375.262892857144</v>
       </c>
       <c r="L116">
-        <v>584.8928571428571</v>
+        <v>599.0060535714285</v>
       </c>
       <c r="M116">
-        <v>24.7</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B117" s="3">
-        <v>44563</v>
+        <v>44542</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
       </c>
       <c r="D117">
-        <v>172.4510654761855</v>
+        <v>178.8955476190451</v>
       </c>
       <c r="E117">
-        <v>176.1123861937075</v>
+        <v>179.3276510694548</v>
       </c>
       <c r="F117">
-        <v>-3.661320717521988</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>-3.661320717521988</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0.9792103167945559</v>
+        <v>0.9975904248573336</v>
       </c>
       <c r="I117">
-        <v>1.573893975160251</v>
+        <v>1.607968930666337</v>
       </c>
       <c r="J117">
-        <v>1.583661666017127</v>
+        <v>1.609123372266538</v>
       </c>
       <c r="K117">
-        <v>374.8399464285689</v>
+        <v>374.296499999994</v>
       </c>
       <c r="L117">
-        <v>589.9583333333334</v>
+        <v>601.8571428571429</v>
       </c>
       <c r="M117">
-        <v>32.6</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>44570</v>
+        <v>44549</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
       </c>
       <c r="D118">
-        <v>175.1705357142879</v>
+        <v>172.564595238095</v>
       </c>
       <c r="E118">
-        <v>180.9860744791596</v>
+        <v>172.5371725861211</v>
       </c>
       <c r="F118">
-        <v>-5.815538764871661</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>-9.47685948239365</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0.9678674794090785</v>
+        <v>1.00015893764551</v>
       </c>
       <c r="I118">
-        <v>1.576511399514425</v>
+        <v>1.579236706502634</v>
       </c>
       <c r="J118">
-        <v>1.591988371081941</v>
+        <v>1.579163589419889</v>
       </c>
       <c r="K118">
-        <v>375.7543095238119</v>
+        <v>375.0512321428673</v>
       </c>
       <c r="L118">
-        <v>592.3809523809524</v>
+        <v>592.2946726190477</v>
       </c>
       <c r="M118">
-        <v>40.6</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B119" s="3">
-        <v>44577</v>
+        <v>44556</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
       </c>
       <c r="D119">
-        <v>182.8107678571472</v>
+        <v>170.0147678571465</v>
       </c>
       <c r="E119">
-        <v>183.671769363045</v>
+        <v>171.4509159512136</v>
       </c>
       <c r="F119">
-        <v>-0.8610015058978036</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>-10.33786098829145</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0.995312281746489</v>
+        <v>0.9916235612618378</v>
       </c>
       <c r="I119">
-        <v>1.600224805410661</v>
+        <v>1.560486156660549</v>
       </c>
       <c r="J119">
-        <v>1.602510406928294</v>
+        <v>1.564317780166184</v>
       </c>
       <c r="K119">
-        <v>376.7067440476191</v>
+        <v>374.8145119047591</v>
       </c>
       <c r="L119">
-        <v>602.8154761904761</v>
+        <v>584.8928571428571</v>
       </c>
       <c r="M119">
-        <v>46</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B120" s="3">
-        <v>44584</v>
+        <v>44563</v>
       </c>
       <c r="C120" t="s">
         <v>23</v>
       </c>
       <c r="D120">
-        <v>184.3406488095144</v>
+        <v>172.4510654761855</v>
       </c>
       <c r="E120">
-        <v>185.1431699821308</v>
+        <v>176.1123861937075</v>
       </c>
       <c r="F120">
-        <v>-0.8025211726163377</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="G120">
-        <v>-11.14038216090779</v>
+        <v>-3.661320717521988</v>
       </c>
       <c r="H120">
-        <v>0.9956654022252411</v>
+        <v>0.9792103167945559</v>
       </c>
       <c r="I120">
-        <v>1.597186272590634</v>
+        <v>1.573893975160251</v>
       </c>
       <c r="J120">
-        <v>1.599262409603678</v>
+        <v>1.583661666017127</v>
       </c>
       <c r="K120">
-        <v>386.54538095238</v>
+        <v>374.8399464285689</v>
       </c>
       <c r="L120">
-        <v>617.3849761904762</v>
+        <v>589.9583333333334</v>
       </c>
       <c r="M120">
-        <v>40.4</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3">
-        <v>44591</v>
+        <v>44570</v>
       </c>
       <c r="C121" t="s">
         <v>23</v>
       </c>
       <c r="D121">
-        <v>181.4743392857213</v>
+        <v>175.1705357142879</v>
       </c>
       <c r="E121">
-        <v>183.6180578703975</v>
+        <v>180.9860744791596</v>
       </c>
       <c r="F121">
-        <v>-2.143718584676179</v>
+        <v>-5.815538764871661</v>
       </c>
       <c r="G121">
-        <v>-13.28410074558397</v>
+        <v>-9.47685948239365</v>
       </c>
       <c r="H121">
-        <v>0.988325121126217</v>
+        <v>0.9678674794090785</v>
       </c>
       <c r="I121">
-        <v>1.593329211930617</v>
+        <v>1.576511399514425</v>
       </c>
       <c r="J121">
-        <v>1.5989775253621</v>
+        <v>1.591988371081941</v>
       </c>
       <c r="K121">
-        <v>379.5325119047581</v>
+        <v>375.7543095238119</v>
       </c>
       <c r="L121">
-        <v>604.7202380952381</v>
+        <v>592.3809523809524</v>
       </c>
       <c r="M121">
-        <v>43</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B122" s="3">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
       </c>
       <c r="D122">
-        <v>186.8434761904757</v>
+        <v>182.8107678571472</v>
       </c>
       <c r="E122">
-        <v>184.8688709310774</v>
+        <v>183.671769363045</v>
       </c>
       <c r="F122">
-        <v>1.974605259398231</v>
+        <v>-0.8610015058978036</v>
       </c>
       <c r="G122">
-        <v>-11.30949548618574</v>
+        <v>-10.33786098829145</v>
       </c>
       <c r="H122">
-        <v>1.010681112777145</v>
+        <v>0.995312281746489</v>
       </c>
       <c r="I122">
-        <v>1.61358206786293</v>
+        <v>1.600224805410661</v>
       </c>
       <c r="J122">
-        <v>1.608401307699431</v>
+        <v>1.602510406928294</v>
       </c>
       <c r="K122">
-        <v>381.1419940476272</v>
+        <v>376.7067440476191</v>
       </c>
       <c r="L122">
-        <v>615.0038869047619</v>
+        <v>602.8154761904761</v>
       </c>
       <c r="M122">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B123" s="3">
-        <v>44605</v>
+        <v>44584</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
       </c>
       <c r="D123">
-        <v>197.7116547619059</v>
+        <v>184.3406488095144</v>
       </c>
       <c r="E123">
-        <v>185.8840415287217</v>
+        <v>185.1431699821308</v>
       </c>
       <c r="F123">
-        <v>11.82761323318425</v>
+        <v>-0.8025211726163377</v>
       </c>
       <c r="G123">
-        <v>0.518117746998513</v>
+        <v>-11.14038216090779</v>
       </c>
       <c r="H123">
-        <v>1.063628986845311</v>
+        <v>0.9956654022252411</v>
       </c>
       <c r="I123">
-        <v>1.639602237824401</v>
+        <v>1.597186272590634</v>
       </c>
       <c r="J123">
-        <v>1.60875669308516</v>
+        <v>1.599262409603678</v>
       </c>
       <c r="K123">
-        <v>383.4464047618953</v>
+        <v>386.54538095238</v>
       </c>
       <c r="L123">
-        <v>628.6995833333333</v>
+        <v>617.3849761904762</v>
       </c>
       <c r="M123">
-        <v>44.9</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B124" s="3">
-        <v>44612</v>
+        <v>44591</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
       </c>
       <c r="D124">
-        <v>197.7937559523797</v>
+        <v>181.4743392857213</v>
       </c>
       <c r="E124">
-        <v>187.2491318869175</v>
+        <v>183.6180578703975</v>
       </c>
       <c r="F124">
-        <v>10.54462406546222</v>
+        <v>-2.143718584676179</v>
       </c>
       <c r="G124">
-        <v>11.06274181246073</v>
+        <v>-13.28410074558397</v>
       </c>
       <c r="H124">
-        <v>1.05631334019658</v>
+        <v>0.988325121126217</v>
       </c>
       <c r="I124">
-        <v>1.615389789850532</v>
+        <v>1.593329211930617</v>
       </c>
       <c r="J124">
-        <v>1.588496278023952</v>
+        <v>1.5989775253621</v>
       </c>
       <c r="K124">
-        <v>392.0880297619095</v>
+        <v>379.5325119047581</v>
       </c>
       <c r="L124">
-        <v>633.375</v>
+        <v>604.7202380952381</v>
       </c>
       <c r="M124">
-        <v>39.9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B125" s="3">
-        <v>44619</v>
+        <v>44598</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
       </c>
       <c r="D125">
-        <v>194.8063809523758</v>
+        <v>186.8434761904757</v>
       </c>
       <c r="E125">
-        <v>186.0622762453148</v>
+        <v>184.8688709310774</v>
       </c>
       <c r="F125">
-        <v>8.744104707060984</v>
+        <v>1.974605259398231</v>
       </c>
       <c r="G125">
-        <v>19.80684651952171</v>
+        <v>-11.30949548618574</v>
       </c>
       <c r="H125">
-        <v>1.046995580638454</v>
+        <v>1.010681112777145</v>
       </c>
       <c r="I125">
-        <v>1.613001273864715</v>
+        <v>1.61358206786293</v>
       </c>
       <c r="J125">
-        <v>1.590289983548631</v>
+        <v>1.608401307699431</v>
       </c>
       <c r="K125">
-        <v>385.0113571428616</v>
+        <v>381.1419940476272</v>
       </c>
       <c r="L125">
-        <v>621.0238095238095</v>
+        <v>615.0038869047619</v>
       </c>
       <c r="M125">
-        <v>43.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B126" s="3">
-        <v>44626</v>
+        <v>44605</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
       </c>
       <c r="D126">
-        <v>190.078869047619</v>
+        <v>197.7116547619059</v>
       </c>
       <c r="E126">
-        <v>181.811394568756</v>
+        <v>185.8840415287217</v>
       </c>
       <c r="F126">
-        <v>8.267474478863022</v>
+        <v>11.82761323318425</v>
       </c>
       <c r="G126">
-        <v>28.07432099838474</v>
+        <v>0.518117746998513</v>
       </c>
       <c r="H126">
-        <v>1.045472807127809</v>
+        <v>1.063628986845311</v>
       </c>
       <c r="I126">
-        <v>1.613921658484486</v>
+        <v>1.639602237824401</v>
       </c>
       <c r="J126">
-        <v>1.59242886934804</v>
+        <v>1.60875669308516</v>
       </c>
       <c r="K126">
-        <v>384.6627083333275</v>
+        <v>383.4464047618953</v>
       </c>
       <c r="L126">
-        <v>620.8154761904761</v>
+        <v>628.6995833333333</v>
       </c>
       <c r="M126">
-        <v>42.2</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1">
+        <v>59</v>
+      </c>
+      <c r="B127" s="3">
+        <v>44612</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>197.7937559523797</v>
+      </c>
+      <c r="E127">
+        <v>187.2491318869175</v>
+      </c>
+      <c r="F127">
+        <v>10.54462406546222</v>
+      </c>
+      <c r="G127">
+        <v>11.06274181246073</v>
+      </c>
+      <c r="H127">
+        <v>1.05631334019658</v>
+      </c>
+      <c r="I127">
+        <v>1.615389789850532</v>
+      </c>
+      <c r="J127">
+        <v>1.588496278023952</v>
+      </c>
+      <c r="K127">
+        <v>392.0880297619095</v>
+      </c>
+      <c r="L127">
+        <v>633.375</v>
+      </c>
+      <c r="M127">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1">
+        <v>60</v>
+      </c>
+      <c r="B128" s="3">
+        <v>44619</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128">
+        <v>194.8063809523758</v>
+      </c>
+      <c r="E128">
+        <v>186.0622762453148</v>
+      </c>
+      <c r="F128">
+        <v>8.744104707060984</v>
+      </c>
+      <c r="G128">
+        <v>19.80684651952171</v>
+      </c>
+      <c r="H128">
+        <v>1.046995580638454</v>
+      </c>
+      <c r="I128">
+        <v>1.613001273864715</v>
+      </c>
+      <c r="J128">
+        <v>1.590289983548631</v>
+      </c>
+      <c r="K128">
+        <v>385.0113571428616</v>
+      </c>
+      <c r="L128">
+        <v>621.0238095238095</v>
+      </c>
+      <c r="M128">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1">
+        <v>61</v>
+      </c>
+      <c r="B129" s="3">
+        <v>44626</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>190.078869047619</v>
+      </c>
+      <c r="E129">
+        <v>185.2952572260893</v>
+      </c>
+      <c r="F129">
+        <v>4.783611821529718</v>
+      </c>
+      <c r="G129">
+        <v>24.59045834105143</v>
+      </c>
+      <c r="H129">
+        <v>1.025816158994793</v>
+      </c>
+      <c r="I129">
+        <v>1.613921658484486</v>
+      </c>
+      <c r="J129">
+        <v>1.601485797877525</v>
+      </c>
+      <c r="K129">
+        <v>384.6627083333275</v>
+      </c>
+      <c r="L129">
+        <v>620.8154761904761</v>
+      </c>
+      <c r="M129">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1">
         <v>62</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B130" s="3">
         <v>44633</v>
       </c>
-      <c r="C127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127">
-        <v>182.6049999999814</v>
-      </c>
-      <c r="E127">
-        <v>159.9790901560654</v>
-      </c>
-      <c r="F127">
-        <v>22.62590984391593</v>
-      </c>
-      <c r="G127">
-        <v>50.70023084230067</v>
-      </c>
-      <c r="H127">
-        <v>1.14143041957448</v>
-      </c>
-      <c r="I127">
-        <v>1.575699045392223</v>
-      </c>
-      <c r="J127">
-        <v>1.516721999003159</v>
-      </c>
-      <c r="K127">
-        <v>383.6392500000075</v>
-      </c>
-      <c r="L127">
-        <v>604.5</v>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>197.1086904762002</v>
+      </c>
+      <c r="E130">
+        <v>185.251300880667</v>
+      </c>
+      <c r="F130">
+        <v>11.85738959553322</v>
+      </c>
+      <c r="G130">
+        <v>36.44784793658465</v>
+      </c>
+      <c r="H130">
+        <v>1.064007051713884</v>
+      </c>
+      <c r="I130">
+        <v>1.625865329993205</v>
+      </c>
+      <c r="J130">
+        <v>1.595175665906781</v>
+      </c>
+      <c r="K130">
+        <v>386.3642678571466</v>
+      </c>
+      <c r="L130">
+        <v>628.1762678571429</v>
+      </c>
+      <c r="M130">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1">
+        <v>63</v>
+      </c>
+      <c r="B131" s="3">
+        <v>44640</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>193.7589999999895</v>
+      </c>
+      <c r="E131">
+        <v>177.3863615043983</v>
+      </c>
+      <c r="F131">
+        <v>16.37263849559127</v>
+      </c>
+      <c r="G131">
+        <v>52.82048643217593</v>
+      </c>
+      <c r="H131">
+        <v>1.092299308451542</v>
+      </c>
+      <c r="I131">
+        <v>1.610143771924244</v>
+      </c>
+      <c r="J131">
+        <v>1.567829084876882</v>
+      </c>
+      <c r="K131">
+        <v>386.9256666666618</v>
+      </c>
+      <c r="L131">
+        <v>623.0059523809524</v>
+      </c>
+      <c r="M131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1">
+        <v>64</v>
+      </c>
+      <c r="B132" s="3">
+        <v>44647</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132">
+        <v>185.9311845238165</v>
+      </c>
+      <c r="E132">
+        <v>176.4547806342112</v>
+      </c>
+      <c r="F132">
+        <v>9.476403889605308</v>
+      </c>
+      <c r="G132">
+        <v>62.29689032178123</v>
+      </c>
+      <c r="H132">
+        <v>1.053704432691171</v>
+      </c>
+      <c r="I132">
+        <v>1.588890099230065</v>
+      </c>
+      <c r="J132">
+        <v>1.564450753840787</v>
+      </c>
+      <c r="K132">
+        <v>387.7519523809564</v>
+      </c>
+      <c r="L132">
+        <v>616.0952380952381</v>
+      </c>
+      <c r="M132">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1">
+        <v>65</v>
+      </c>
+      <c r="B133" s="3">
+        <v>44654</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>199.28085416666</v>
+      </c>
+      <c r="E133">
+        <v>162.1769312969526</v>
+      </c>
+      <c r="F133">
+        <v>37.10392286970742</v>
+      </c>
+      <c r="G133">
+        <v>99.40081319148865</v>
+      </c>
+      <c r="H133">
+        <v>1.228786687311086</v>
+      </c>
+      <c r="I133">
+        <v>1.630198047474724</v>
+      </c>
+      <c r="J133">
+        <v>1.53479309066739</v>
+      </c>
+      <c r="K133">
+        <v>388.9098020833238</v>
+      </c>
+      <c r="L133">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
